--- a/data/league_data/france/20/france_passing.xlsx
+++ b/data/league_data/france/20/france_passing.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sanjitvarma/Desktop/trial_git/Predicting-Football-Player-Transfer-Values/data/league_data/france/20/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{12CB085B-6453-1E42-B58E-FC1528EE82AB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70C60E81-0418-1E40-B259-3DBBFD582AF0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="14720"/>
+    <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="14720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -778,9 +778,6 @@
     <t>Mounir Chouiar</t>
   </si>
   <si>
-    <t>Marcelo</t>
-  </si>
-  <si>
     <t>Mohamed Simakan</t>
   </si>
   <si>
@@ -1823,12 +1820,15 @@
   </si>
   <si>
     <t>Edmilson Indjai</t>
+  </si>
+  <si>
+    <t>Marcelo Filho</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -2689,14 +2689,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AD501"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AD500"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AF2" sqref="AF2"/>
+    <sheetView tabSelected="1" topLeftCell="A144" workbookViewId="0">
+      <selection activeCell="B167" sqref="B167"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.33203125" bestFit="1" customWidth="1"/>
@@ -2728,7 +2728,7 @@
     <col min="30" max="30" width="4.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2820,7 +2820,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -2912,7 +2912,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="3" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -3004,7 +3004,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="4" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -3096,7 +3096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -3188,7 +3188,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="6" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -3280,7 +3280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -3372,7 +3372,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -3464,7 +3464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -3556,7 +3556,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="10" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -3648,7 +3648,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="11" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -3740,7 +3740,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="12" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -3832,7 +3832,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="13" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -3924,7 +3924,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="14" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -4016,7 +4016,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="15" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -4108,7 +4108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -4200,7 +4200,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -4292,7 +4292,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -4384,7 +4384,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="19" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -4476,7 +4476,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -4568,7 +4568,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="21" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -4660,7 +4660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -4752,7 +4752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -4844,7 +4844,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -4936,7 +4936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -5028,7 +5028,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -5120,7 +5120,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="27" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -5212,7 +5212,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="28" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -5304,7 +5304,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="29" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -5396,7 +5396,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="30" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -5488,7 +5488,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="31" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -5580,7 +5580,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="32" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -5672,7 +5672,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="33" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -5764,7 +5764,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -5856,7 +5856,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="35" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -5948,7 +5948,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="36" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -6040,7 +6040,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="37" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -6132,7 +6132,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="38" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -6224,7 +6224,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -6316,7 +6316,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="40" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -6408,7 +6408,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="41" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -6500,7 +6500,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="42" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -6592,7 +6592,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="43" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>42</v>
       </c>
@@ -6684,7 +6684,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="44" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>43</v>
       </c>
@@ -6776,7 +6776,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="45" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>44</v>
       </c>
@@ -6868,7 +6868,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="46" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>45</v>
       </c>
@@ -6960,7 +6960,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="47" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>46</v>
       </c>
@@ -7052,7 +7052,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="48" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>47</v>
       </c>
@@ -7144,7 +7144,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="49" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>48</v>
       </c>
@@ -7236,7 +7236,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="50" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>49</v>
       </c>
@@ -7328,7 +7328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>50</v>
       </c>
@@ -7420,7 +7420,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="52" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>51</v>
       </c>
@@ -7512,7 +7512,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="53" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>52</v>
       </c>
@@ -7604,7 +7604,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="54" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>53</v>
       </c>
@@ -7696,7 +7696,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="55" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>54</v>
       </c>
@@ -7788,7 +7788,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="56" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>55</v>
       </c>
@@ -7880,7 +7880,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="57" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>56</v>
       </c>
@@ -7972,7 +7972,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="58" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>57</v>
       </c>
@@ -8064,7 +8064,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="59" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>58</v>
       </c>
@@ -8156,7 +8156,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="60" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>59</v>
       </c>
@@ -8248,7 +8248,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="61" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>60</v>
       </c>
@@ -8340,7 +8340,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="62" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>61</v>
       </c>
@@ -8432,7 +8432,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="63" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <v>62</v>
       </c>
@@ -8524,7 +8524,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="64" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
         <v>63</v>
       </c>
@@ -8616,7 +8616,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="65" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
         <v>64</v>
       </c>
@@ -8708,7 +8708,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="66" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
         <v>65</v>
       </c>
@@ -8800,7 +8800,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="67" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
         <v>66</v>
       </c>
@@ -8892,7 +8892,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="68" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
         <v>67</v>
       </c>
@@ -8984,7 +8984,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="69" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
         <v>68</v>
       </c>
@@ -9076,7 +9076,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="70" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
         <v>69</v>
       </c>
@@ -9168,7 +9168,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="71" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
         <v>70</v>
       </c>
@@ -9260,7 +9260,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="72" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
         <v>71</v>
       </c>
@@ -9352,7 +9352,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="73" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
         <v>72</v>
       </c>
@@ -9444,7 +9444,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="74" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
         <v>73</v>
       </c>
@@ -9536,7 +9536,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
         <v>74</v>
       </c>
@@ -9628,7 +9628,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="76" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
         <v>75</v>
       </c>
@@ -9720,7 +9720,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="77" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
         <v>76</v>
       </c>
@@ -9812,7 +9812,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="78" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
         <v>77</v>
       </c>
@@ -9904,7 +9904,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="79" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
         <v>78</v>
       </c>
@@ -9996,7 +9996,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="80" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
         <v>79</v>
       </c>
@@ -10088,7 +10088,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="81" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
         <v>80</v>
       </c>
@@ -10180,7 +10180,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="82" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
         <v>81</v>
       </c>
@@ -10272,7 +10272,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="83" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
         <v>82</v>
       </c>
@@ -10364,7 +10364,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="84" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
         <v>83</v>
       </c>
@@ -10456,7 +10456,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="85" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
         <v>84</v>
       </c>
@@ -10548,7 +10548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
         <v>85</v>
       </c>
@@ -10640,7 +10640,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="87" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
         <v>86</v>
       </c>
@@ -10732,7 +10732,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="88" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
         <v>87</v>
       </c>
@@ -10824,7 +10824,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="89" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
         <v>88</v>
       </c>
@@ -10916,7 +10916,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="90" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
         <v>89</v>
       </c>
@@ -11008,7 +11008,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="91" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
         <v>90</v>
       </c>
@@ -11100,7 +11100,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="92" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A92" s="1">
         <v>91</v>
       </c>
@@ -11192,7 +11192,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="93" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A93" s="1">
         <v>92</v>
       </c>
@@ -11284,7 +11284,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="94" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A94" s="1">
         <v>93</v>
       </c>
@@ -11376,7 +11376,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="95" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A95" s="1">
         <v>94</v>
       </c>
@@ -11468,7 +11468,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="96" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A96" s="1">
         <v>95</v>
       </c>
@@ -11560,7 +11560,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="97" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A97" s="1">
         <v>96</v>
       </c>
@@ -11652,7 +11652,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="98" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A98" s="1">
         <v>97</v>
       </c>
@@ -11744,7 +11744,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="99" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A99" s="1">
         <v>98</v>
       </c>
@@ -11836,7 +11836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A100" s="1">
         <v>99</v>
       </c>
@@ -11928,7 +11928,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="101" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A101" s="1">
         <v>100</v>
       </c>
@@ -12020,7 +12020,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="102" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A102" s="1">
         <v>101</v>
       </c>
@@ -12112,7 +12112,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="103" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A103" s="1">
         <v>102</v>
       </c>
@@ -12204,7 +12204,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="104" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A104" s="1">
         <v>103</v>
       </c>
@@ -12296,7 +12296,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="105" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A105" s="1">
         <v>104</v>
       </c>
@@ -12388,7 +12388,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="106" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A106" s="1">
         <v>105</v>
       </c>
@@ -12480,7 +12480,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="107" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A107" s="1">
         <v>106</v>
       </c>
@@ -12572,7 +12572,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="108" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A108" s="1">
         <v>107</v>
       </c>
@@ -12664,7 +12664,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="109" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A109" s="1">
         <v>108</v>
       </c>
@@ -12756,7 +12756,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="110" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A110" s="1">
         <v>109</v>
       </c>
@@ -12848,7 +12848,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="111" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A111" s="1">
         <v>110</v>
       </c>
@@ -12940,7 +12940,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="112" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A112" s="1">
         <v>111</v>
       </c>
@@ -13032,7 +13032,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="113" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A113" s="1">
         <v>112</v>
       </c>
@@ -13124,7 +13124,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="114" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A114" s="1">
         <v>113</v>
       </c>
@@ -13216,7 +13216,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="115" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A115" s="1">
         <v>114</v>
       </c>
@@ -13308,7 +13308,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="116" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A116" s="1">
         <v>115</v>
       </c>
@@ -13400,7 +13400,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="117" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A117" s="1">
         <v>116</v>
       </c>
@@ -13492,7 +13492,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="118" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A118" s="1">
         <v>117</v>
       </c>
@@ -13584,7 +13584,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="119" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A119" s="1">
         <v>118</v>
       </c>
@@ -13676,7 +13676,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="120" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A120" s="1">
         <v>119</v>
       </c>
@@ -13768,7 +13768,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="121" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A121" s="1">
         <v>120</v>
       </c>
@@ -13860,7 +13860,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="122" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A122" s="1">
         <v>121</v>
       </c>
@@ -13952,7 +13952,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="123" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A123" s="1">
         <v>122</v>
       </c>
@@ -14044,7 +14044,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="124" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A124" s="1">
         <v>123</v>
       </c>
@@ -14136,7 +14136,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="125" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A125" s="1">
         <v>124</v>
       </c>
@@ -14228,7 +14228,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="126" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A126" s="1">
         <v>125</v>
       </c>
@@ -14320,7 +14320,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="127" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A127" s="1">
         <v>126</v>
       </c>
@@ -14412,7 +14412,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="128" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A128" s="1">
         <v>127</v>
       </c>
@@ -14504,7 +14504,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="129" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A129" s="1">
         <v>128</v>
       </c>
@@ -14596,7 +14596,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="130" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A130" s="1">
         <v>129</v>
       </c>
@@ -14688,7 +14688,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="131" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A131" s="1">
         <v>130</v>
       </c>
@@ -14780,7 +14780,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="132" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A132" s="1">
         <v>131</v>
       </c>
@@ -14872,7 +14872,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="133" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A133" s="1">
         <v>132</v>
       </c>
@@ -14964,7 +14964,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="134" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A134" s="1">
         <v>133</v>
       </c>
@@ -15056,7 +15056,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="135" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A135" s="1">
         <v>134</v>
       </c>
@@ -15148,7 +15148,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="136" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A136" s="1">
         <v>135</v>
       </c>
@@ -15240,7 +15240,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="137" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A137" s="1">
         <v>136</v>
       </c>
@@ -15332,7 +15332,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="138" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A138" s="1">
         <v>137</v>
       </c>
@@ -15424,7 +15424,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="139" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A139" s="1">
         <v>138</v>
       </c>
@@ -15516,7 +15516,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="140" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A140" s="1">
         <v>139</v>
       </c>
@@ -15608,7 +15608,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="141" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A141" s="1">
         <v>140</v>
       </c>
@@ -15700,7 +15700,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="142" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A142" s="1">
         <v>141</v>
       </c>
@@ -15792,7 +15792,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="143" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A143" s="1">
         <v>142</v>
       </c>
@@ -15884,7 +15884,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="144" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A144" s="1">
         <v>143</v>
       </c>
@@ -15976,7 +15976,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="145" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A145" s="1">
         <v>144</v>
       </c>
@@ -16068,7 +16068,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="146" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A146" s="1">
         <v>145</v>
       </c>
@@ -16160,7 +16160,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="147" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A147" s="1">
         <v>146</v>
       </c>
@@ -16252,7 +16252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A148" s="1">
         <v>147</v>
       </c>
@@ -16344,7 +16344,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="149" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A149" s="1">
         <v>148</v>
       </c>
@@ -16436,7 +16436,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="150" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A150" s="1">
         <v>149</v>
       </c>
@@ -16528,7 +16528,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="151" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A151" s="1">
         <v>150</v>
       </c>
@@ -16620,7 +16620,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="152" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A152" s="1">
         <v>151</v>
       </c>
@@ -16712,7 +16712,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="153" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A153" s="1">
         <v>152</v>
       </c>
@@ -16804,7 +16804,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="154" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A154" s="1">
         <v>153</v>
       </c>
@@ -16896,7 +16896,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="155" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A155" s="1">
         <v>154</v>
       </c>
@@ -16988,7 +16988,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="156" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A156" s="1">
         <v>155</v>
       </c>
@@ -17080,7 +17080,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="157" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A157" s="1">
         <v>156</v>
       </c>
@@ -17172,7 +17172,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="158" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A158" s="1">
         <v>157</v>
       </c>
@@ -17264,7 +17264,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="159" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A159" s="1">
         <v>158</v>
       </c>
@@ -17356,7 +17356,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="160" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A160" s="1">
         <v>159</v>
       </c>
@@ -17448,7 +17448,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="161" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A161" s="1">
         <v>160</v>
       </c>
@@ -17540,7 +17540,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="162" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A162" s="1">
         <v>161</v>
       </c>
@@ -17632,7 +17632,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="163" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A163" s="1">
         <v>162</v>
       </c>
@@ -17724,7 +17724,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="164" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A164" s="1">
         <v>163</v>
       </c>
@@ -17816,7 +17816,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="165" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A165" s="1">
         <v>164</v>
       </c>
@@ -17908,7 +17908,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="166" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A166" s="1">
         <v>165</v>
       </c>
@@ -18000,12 +18000,12 @@
         <v>54</v>
       </c>
     </row>
-    <row r="167" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A167" s="1">
         <v>166</v>
       </c>
       <c r="B167" s="4" t="s">
-        <v>252</v>
+        <v>600</v>
       </c>
       <c r="C167" s="4" t="s">
         <v>43</v>
@@ -18092,12 +18092,12 @@
         <v>71</v>
       </c>
     </row>
-    <row r="168" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A168" s="1">
         <v>167</v>
       </c>
       <c r="B168" s="4" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C168" s="4" t="s">
         <v>25</v>
@@ -18184,12 +18184,12 @@
         <v>74</v>
       </c>
     </row>
-    <row r="169" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A169" s="1">
         <v>168</v>
       </c>
       <c r="B169" s="4" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C169" s="4" t="s">
         <v>25</v>
@@ -18276,12 +18276,12 @@
         <v>46</v>
       </c>
     </row>
-    <row r="170" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A170" s="1">
         <v>169</v>
       </c>
       <c r="B170" s="4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C170" s="4" t="s">
         <v>25</v>
@@ -18368,12 +18368,12 @@
         <v>33</v>
       </c>
     </row>
-    <row r="171" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A171" s="1">
         <v>170</v>
       </c>
       <c r="B171" s="4" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C171" s="4" t="s">
         <v>25</v>
@@ -18460,15 +18460,15 @@
         <v>77</v>
       </c>
     </row>
-    <row r="172" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A172" s="1">
         <v>171</v>
       </c>
       <c r="B172" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="C172" s="4" t="s">
         <v>257</v>
-      </c>
-      <c r="C172" s="4" t="s">
-        <v>258</v>
       </c>
       <c r="D172" s="4" t="s">
         <v>22</v>
@@ -18552,12 +18552,12 @@
         <v>36</v>
       </c>
     </row>
-    <row r="173" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A173" s="1">
         <v>172</v>
       </c>
       <c r="B173" s="4" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C173" s="4" t="s">
         <v>74</v>
@@ -18644,12 +18644,12 @@
         <v>95</v>
       </c>
     </row>
-    <row r="174" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A174" s="1">
         <v>173</v>
       </c>
       <c r="B174" s="4" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C174" s="4" t="s">
         <v>177</v>
@@ -18736,12 +18736,12 @@
         <v>163</v>
       </c>
     </row>
-    <row r="175" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A175" s="1">
         <v>174</v>
       </c>
       <c r="B175" s="4" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C175" s="4" t="s">
         <v>84</v>
@@ -18828,12 +18828,12 @@
         <v>48</v>
       </c>
     </row>
-    <row r="176" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A176" s="1">
         <v>175</v>
       </c>
       <c r="B176" s="4" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C176" s="4" t="s">
         <v>43</v>
@@ -18920,15 +18920,15 @@
         <v>83</v>
       </c>
     </row>
-    <row r="177" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A177" s="1">
         <v>176</v>
       </c>
       <c r="B177" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="C177" s="4" t="s">
         <v>263</v>
-      </c>
-      <c r="C177" s="4" t="s">
-        <v>264</v>
       </c>
       <c r="D177" s="4" t="s">
         <v>22</v>
@@ -19012,12 +19012,12 @@
         <v>63</v>
       </c>
     </row>
-    <row r="178" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A178" s="1">
         <v>177</v>
       </c>
       <c r="B178" s="4" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C178" s="4" t="s">
         <v>25</v>
@@ -19104,12 +19104,12 @@
         <v>51</v>
       </c>
     </row>
-    <row r="179" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A179" s="1">
         <v>178</v>
       </c>
       <c r="B179" s="4" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C179" s="4" t="s">
         <v>25</v>
@@ -19196,12 +19196,12 @@
         <v>66</v>
       </c>
     </row>
-    <row r="180" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A180" s="1">
         <v>179</v>
       </c>
       <c r="B180" s="4" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C180" s="4" t="s">
         <v>25</v>
@@ -19288,12 +19288,12 @@
         <v>69</v>
       </c>
     </row>
-    <row r="181" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A181" s="1">
         <v>180</v>
       </c>
       <c r="B181" s="4" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C181" s="4" t="s">
         <v>25</v>
@@ -19380,12 +19380,12 @@
         <v>37</v>
       </c>
     </row>
-    <row r="182" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A182" s="1">
         <v>181</v>
       </c>
       <c r="B182" s="4" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C182" s="4" t="s">
         <v>21</v>
@@ -19472,15 +19472,15 @@
         <v>48</v>
       </c>
     </row>
-    <row r="183" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A183" s="1">
         <v>182</v>
       </c>
       <c r="B183" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="C183" s="4" t="s">
         <v>270</v>
-      </c>
-      <c r="C183" s="4" t="s">
-        <v>271</v>
       </c>
       <c r="D183" s="4" t="s">
         <v>22</v>
@@ -19564,12 +19564,12 @@
         <v>74</v>
       </c>
     </row>
-    <row r="184" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A184" s="1">
         <v>183</v>
       </c>
       <c r="B184" s="4" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C184" s="4" t="s">
         <v>169</v>
@@ -19656,12 +19656,12 @@
         <v>52</v>
       </c>
     </row>
-    <row r="185" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A185" s="1">
         <v>184</v>
       </c>
       <c r="B185" s="4" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C185" s="4" t="s">
         <v>25</v>
@@ -19748,15 +19748,15 @@
         <v>66</v>
       </c>
     </row>
-    <row r="186" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A186" s="1">
         <v>185</v>
       </c>
       <c r="B186" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="C186" s="4" t="s">
         <v>274</v>
-      </c>
-      <c r="C186" s="4" t="s">
-        <v>275</v>
       </c>
       <c r="D186" s="4" t="s">
         <v>46</v>
@@ -19840,12 +19840,12 @@
         <v>79</v>
       </c>
     </row>
-    <row r="187" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A187" s="1">
         <v>186</v>
       </c>
       <c r="B187" s="4" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C187" s="4" t="s">
         <v>25</v>
@@ -19932,12 +19932,12 @@
         <v>64</v>
       </c>
     </row>
-    <row r="188" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A188" s="1">
         <v>187</v>
       </c>
       <c r="B188" s="4" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C188" s="4" t="s">
         <v>177</v>
@@ -20024,15 +20024,15 @@
         <v>63</v>
       </c>
     </row>
-    <row r="189" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A189" s="1">
         <v>188</v>
       </c>
       <c r="B189" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="C189" s="4" t="s">
         <v>278</v>
-      </c>
-      <c r="C189" s="4" t="s">
-        <v>279</v>
       </c>
       <c r="D189" s="4" t="s">
         <v>86</v>
@@ -20116,12 +20116,12 @@
         <v>26</v>
       </c>
     </row>
-    <row r="190" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A190" s="1">
         <v>189</v>
       </c>
       <c r="B190" s="4" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C190" s="4" t="s">
         <v>25</v>
@@ -20208,12 +20208,12 @@
         <v>36</v>
       </c>
     </row>
-    <row r="191" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A191" s="1">
         <v>190</v>
       </c>
       <c r="B191" s="4" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C191" s="4" t="s">
         <v>225</v>
@@ -20300,12 +20300,12 @@
         <v>48</v>
       </c>
     </row>
-    <row r="192" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A192" s="1">
         <v>191</v>
       </c>
       <c r="B192" s="4" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C192" s="4" t="s">
         <v>25</v>
@@ -20392,15 +20392,15 @@
         <v>41</v>
       </c>
     </row>
-    <row r="193" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A193" s="1">
         <v>192</v>
       </c>
       <c r="B193" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="C193" s="4" t="s">
         <v>283</v>
-      </c>
-      <c r="C193" s="4" t="s">
-        <v>284</v>
       </c>
       <c r="D193" s="4" t="s">
         <v>22</v>
@@ -20484,12 +20484,12 @@
         <v>53</v>
       </c>
     </row>
-    <row r="194" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A194" s="1">
         <v>193</v>
       </c>
       <c r="B194" s="4" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C194" s="4" t="s">
         <v>25</v>
@@ -20576,12 +20576,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="195" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A195" s="1">
         <v>194</v>
       </c>
       <c r="B195" s="4" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C195" s="4" t="s">
         <v>74</v>
@@ -20668,12 +20668,12 @@
         <v>71</v>
       </c>
     </row>
-    <row r="196" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A196" s="1">
         <v>195</v>
       </c>
       <c r="B196" s="4" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C196" s="4" t="s">
         <v>25</v>
@@ -20760,12 +20760,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="197" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A197" s="1">
         <v>196</v>
       </c>
       <c r="B197" s="4" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C197" s="4" t="s">
         <v>25</v>
@@ -20852,12 +20852,12 @@
         <v>68</v>
       </c>
     </row>
-    <row r="198" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A198" s="1">
         <v>197</v>
       </c>
       <c r="B198" s="4" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C198" s="4" t="s">
         <v>80</v>
@@ -20944,12 +20944,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="199" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A199" s="1">
         <v>198</v>
       </c>
       <c r="B199" s="4" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C199" s="4" t="s">
         <v>25</v>
@@ -21036,12 +21036,12 @@
         <v>74</v>
       </c>
     </row>
-    <row r="200" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A200" s="1">
         <v>199</v>
       </c>
       <c r="B200" s="4" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C200" s="4" t="s">
         <v>25</v>
@@ -21128,15 +21128,15 @@
         <v>22</v>
       </c>
     </row>
-    <row r="201" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A201" s="1">
         <v>200</v>
       </c>
       <c r="B201" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="C201" s="4" t="s">
         <v>292</v>
-      </c>
-      <c r="C201" s="4" t="s">
-        <v>293</v>
       </c>
       <c r="D201" s="4" t="s">
         <v>22</v>
@@ -21220,12 +21220,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="202" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A202" s="1">
         <v>201</v>
       </c>
       <c r="B202" s="4" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C202" s="4" t="s">
         <v>84</v>
@@ -21312,12 +21312,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="203" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A203" s="1">
         <v>202</v>
       </c>
       <c r="B203" s="4" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C203" s="4" t="s">
         <v>25</v>
@@ -21404,12 +21404,12 @@
         <v>81</v>
       </c>
     </row>
-    <row r="204" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A204" s="1">
         <v>203</v>
       </c>
       <c r="B204" s="4" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C204" s="4" t="s">
         <v>84</v>
@@ -21496,12 +21496,12 @@
         <v>81</v>
       </c>
     </row>
-    <row r="205" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A205" s="1">
         <v>204</v>
       </c>
       <c r="B205" s="4" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C205" s="4" t="s">
         <v>43</v>
@@ -21588,12 +21588,12 @@
         <v>149</v>
       </c>
     </row>
-    <row r="206" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A206" s="1">
         <v>205</v>
       </c>
       <c r="B206" s="4" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C206" s="4" t="s">
         <v>25</v>
@@ -21680,12 +21680,12 @@
         <v>59</v>
       </c>
     </row>
-    <row r="207" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A207" s="1">
         <v>206</v>
       </c>
       <c r="B207" s="4" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C207" s="4" t="s">
         <v>66</v>
@@ -21772,12 +21772,12 @@
         <v>67</v>
       </c>
     </row>
-    <row r="208" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A208" s="1">
         <v>207</v>
       </c>
       <c r="B208" s="4" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C208" s="4" t="s">
         <v>25</v>
@@ -21864,12 +21864,12 @@
         <v>49</v>
       </c>
     </row>
-    <row r="209" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A209" s="1">
         <v>208</v>
       </c>
       <c r="B209" s="4" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C209" s="4" t="s">
         <v>25</v>
@@ -21956,12 +21956,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="210" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A210" s="1">
         <v>209</v>
       </c>
       <c r="B210" s="4" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C210" s="4" t="s">
         <v>25</v>
@@ -22048,12 +22048,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="211" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A211" s="1">
         <v>210</v>
       </c>
       <c r="B211" s="4" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C211" s="4" t="s">
         <v>25</v>
@@ -22140,12 +22140,12 @@
         <v>84</v>
       </c>
     </row>
-    <row r="212" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A212" s="1">
         <v>211</v>
       </c>
       <c r="B212" s="4" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C212" s="4" t="s">
         <v>70</v>
@@ -22232,12 +22232,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="213" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A213" s="1">
         <v>212</v>
       </c>
       <c r="B213" s="4" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C213" s="4" t="s">
         <v>25</v>
@@ -22324,12 +22324,12 @@
         <v>76</v>
       </c>
     </row>
-    <row r="214" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A214" s="1">
         <v>213</v>
       </c>
       <c r="B214" s="4" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C214" s="4" t="s">
         <v>25</v>
@@ -22416,12 +22416,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="215" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A215" s="1">
         <v>214</v>
       </c>
       <c r="B215" s="4" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C215" s="4" t="s">
         <v>25</v>
@@ -22508,12 +22508,12 @@
         <v>54</v>
       </c>
     </row>
-    <row r="216" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A216" s="1">
         <v>215</v>
       </c>
       <c r="B216" s="4" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C216" s="4" t="s">
         <v>25</v>
@@ -22600,15 +22600,15 @@
         <v>33</v>
       </c>
     </row>
-    <row r="217" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A217" s="1">
         <v>216</v>
       </c>
       <c r="B217" s="4" t="s">
+        <v>308</v>
+      </c>
+      <c r="C217" s="4" t="s">
         <v>309</v>
-      </c>
-      <c r="C217" s="4" t="s">
-        <v>310</v>
       </c>
       <c r="D217" s="4" t="s">
         <v>86</v>
@@ -22692,12 +22692,12 @@
         <v>54</v>
       </c>
     </row>
-    <row r="218" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A218" s="1">
         <v>217</v>
       </c>
       <c r="B218" s="4" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C218" s="4" t="s">
         <v>25</v>
@@ -22784,12 +22784,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="219" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A219" s="1">
         <v>218</v>
       </c>
       <c r="B219" s="4" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C219" s="4" t="s">
         <v>156</v>
@@ -22876,12 +22876,12 @@
         <v>29</v>
       </c>
     </row>
-    <row r="220" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A220" s="1">
         <v>219</v>
       </c>
       <c r="B220" s="4" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C220" s="4" t="s">
         <v>52</v>
@@ -22968,12 +22968,12 @@
         <v>55</v>
       </c>
     </row>
-    <row r="221" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A221" s="1">
         <v>220</v>
       </c>
       <c r="B221" s="4" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C221" s="4" t="s">
         <v>25</v>
@@ -23060,12 +23060,12 @@
         <v>51</v>
       </c>
     </row>
-    <row r="222" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A222" s="1">
         <v>221</v>
       </c>
       <c r="B222" s="4" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C222" s="4" t="s">
         <v>25</v>
@@ -23152,12 +23152,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="223" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A223" s="1">
         <v>222</v>
       </c>
       <c r="B223" s="4" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C223" s="4" t="s">
         <v>25</v>
@@ -23244,12 +23244,12 @@
         <v>55</v>
       </c>
     </row>
-    <row r="224" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A224" s="1">
         <v>223</v>
       </c>
       <c r="B224" s="4" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C224" s="4" t="s">
         <v>74</v>
@@ -23336,12 +23336,12 @@
         <v>65</v>
       </c>
     </row>
-    <row r="225" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A225" s="1">
         <v>224</v>
       </c>
       <c r="B225" s="4" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C225" s="4" t="s">
         <v>25</v>
@@ -23428,12 +23428,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="226" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A226" s="1">
         <v>225</v>
       </c>
       <c r="B226" s="4" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C226" s="4" t="s">
         <v>25</v>
@@ -23520,15 +23520,15 @@
         <v>64</v>
       </c>
     </row>
-    <row r="227" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A227" s="1">
         <v>226</v>
       </c>
       <c r="B227" s="4" t="s">
+        <v>319</v>
+      </c>
+      <c r="C227" s="4" t="s">
         <v>320</v>
-      </c>
-      <c r="C227" s="4" t="s">
-        <v>321</v>
       </c>
       <c r="D227" s="4" t="s">
         <v>86</v>
@@ -23612,12 +23612,12 @@
         <v>29</v>
       </c>
     </row>
-    <row r="228" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A228" s="1">
         <v>227</v>
       </c>
       <c r="B228" s="4" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C228" s="4" t="s">
         <v>25</v>
@@ -23704,12 +23704,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="229" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A229" s="1">
         <v>228</v>
       </c>
       <c r="B229" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C229" s="4" t="s">
         <v>96</v>
@@ -23796,12 +23796,12 @@
         <v>72</v>
       </c>
     </row>
-    <row r="230" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A230" s="1">
         <v>229</v>
       </c>
       <c r="B230" s="4" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C230" s="4" t="s">
         <v>25</v>
@@ -23888,12 +23888,12 @@
         <v>43</v>
       </c>
     </row>
-    <row r="231" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A231" s="1">
         <v>230</v>
       </c>
       <c r="B231" s="4" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C231" s="4" t="s">
         <v>60</v>
@@ -23980,12 +23980,12 @@
         <v>34</v>
       </c>
     </row>
-    <row r="232" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A232" s="1">
         <v>231</v>
       </c>
       <c r="B232" s="4" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C232" s="4" t="s">
         <v>25</v>
@@ -24072,12 +24072,12 @@
         <v>51</v>
       </c>
     </row>
-    <row r="233" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A233" s="1">
         <v>232</v>
       </c>
       <c r="B233" s="4" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C233" s="4" t="s">
         <v>25</v>
@@ -24164,12 +24164,12 @@
         <v>39</v>
       </c>
     </row>
-    <row r="234" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A234" s="1">
         <v>233</v>
       </c>
       <c r="B234" s="4" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C234" s="4" t="s">
         <v>225</v>
@@ -24256,12 +24256,12 @@
         <v>59</v>
       </c>
     </row>
-    <row r="235" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A235" s="1">
         <v>234</v>
       </c>
       <c r="B235" s="4" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C235" s="4" t="s">
         <v>96</v>
@@ -24348,12 +24348,12 @@
         <v>34</v>
       </c>
     </row>
-    <row r="236" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A236" s="1">
         <v>235</v>
       </c>
       <c r="B236" s="4" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C236" s="4" t="s">
         <v>25</v>
@@ -24440,15 +24440,15 @@
         <v>77</v>
       </c>
     </row>
-    <row r="237" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A237" s="1">
         <v>236</v>
       </c>
       <c r="B237" s="4" t="s">
+        <v>330</v>
+      </c>
+      <c r="C237" s="4" t="s">
         <v>331</v>
-      </c>
-      <c r="C237" s="4" t="s">
-        <v>332</v>
       </c>
       <c r="D237" s="4" t="s">
         <v>86</v>
@@ -24532,12 +24532,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="238" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A238" s="1">
         <v>237</v>
       </c>
       <c r="B238" s="4" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C238" s="4" t="s">
         <v>25</v>
@@ -24624,12 +24624,12 @@
         <v>22</v>
       </c>
     </row>
-    <row r="239" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A239" s="1">
         <v>238</v>
       </c>
       <c r="B239" s="4" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C239" s="4" t="s">
         <v>25</v>
@@ -24716,12 +24716,12 @@
         <v>43</v>
       </c>
     </row>
-    <row r="240" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A240" s="1">
         <v>239</v>
       </c>
       <c r="B240" s="4" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C240" s="4" t="s">
         <v>43</v>
@@ -24808,12 +24808,12 @@
         <v>49</v>
       </c>
     </row>
-    <row r="241" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A241" s="1">
         <v>240</v>
       </c>
       <c r="B241" s="4" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C241" s="4" t="s">
         <v>66</v>
@@ -24900,15 +24900,15 @@
         <v>46</v>
       </c>
     </row>
-    <row r="242" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A242" s="1">
         <v>241</v>
       </c>
       <c r="B242" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C242" s="4" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D242" s="4" t="s">
         <v>22</v>
@@ -24992,12 +24992,12 @@
         <v>57</v>
       </c>
     </row>
-    <row r="243" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A243" s="1">
         <v>242</v>
       </c>
       <c r="B243" s="4" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C243" s="4" t="s">
         <v>25</v>
@@ -25084,15 +25084,15 @@
         <v>74</v>
       </c>
     </row>
-    <row r="244" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A244" s="1">
         <v>243</v>
       </c>
       <c r="B244" s="4" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C244" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D244" s="4" t="s">
         <v>22</v>
@@ -25176,12 +25176,12 @@
         <v>37</v>
       </c>
     </row>
-    <row r="245" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A245" s="1">
         <v>244</v>
       </c>
       <c r="B245" s="4" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C245" s="4" t="s">
         <v>25</v>
@@ -25268,15 +25268,15 @@
         <v>70</v>
       </c>
     </row>
-    <row r="246" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A246" s="1">
         <v>245</v>
       </c>
       <c r="B246" s="4" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C246" s="4" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D246" s="4" t="s">
         <v>86</v>
@@ -25360,12 +25360,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="247" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A247" s="1">
         <v>246</v>
       </c>
       <c r="B247" s="4" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C247" s="4" t="s">
         <v>25</v>
@@ -25452,12 +25452,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="248" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A248" s="1">
         <v>247</v>
       </c>
       <c r="B248" s="4" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C248" s="4" t="s">
         <v>156</v>
@@ -25544,12 +25544,12 @@
         <v>29</v>
       </c>
     </row>
-    <row r="249" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A249" s="1">
         <v>248</v>
       </c>
       <c r="B249" s="4" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C249" s="4" t="s">
         <v>25</v>
@@ -25636,12 +25636,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="250" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A250" s="1">
         <v>249</v>
       </c>
       <c r="B250" s="4" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C250" s="4" t="s">
         <v>25</v>
@@ -25728,15 +25728,15 @@
         <v>51</v>
       </c>
     </row>
-    <row r="251" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A251" s="1">
         <v>250</v>
       </c>
       <c r="B251" s="4" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C251" s="4" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D251" s="4" t="s">
         <v>22</v>
@@ -25820,12 +25820,12 @@
         <v>65</v>
       </c>
     </row>
-    <row r="252" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A252" s="1">
         <v>251</v>
       </c>
       <c r="B252" s="4" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C252" s="4" t="s">
         <v>74</v>
@@ -25912,12 +25912,12 @@
         <v>70</v>
       </c>
     </row>
-    <row r="253" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A253" s="1">
         <v>252</v>
       </c>
       <c r="B253" s="4" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C253" s="4" t="s">
         <v>43</v>
@@ -26004,15 +26004,15 @@
         <v>43</v>
       </c>
     </row>
-    <row r="254" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A254" s="1">
         <v>253</v>
       </c>
       <c r="B254" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="C254" s="4" t="s">
         <v>349</v>
-      </c>
-      <c r="C254" s="4" t="s">
-        <v>350</v>
       </c>
       <c r="D254" s="4" t="s">
         <v>81</v>
@@ -26096,12 +26096,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="255" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A255" s="1">
         <v>254</v>
       </c>
       <c r="B255" s="4" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C255" s="4" t="s">
         <v>84</v>
@@ -26188,12 +26188,12 @@
         <v>43</v>
       </c>
     </row>
-    <row r="256" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A256" s="1">
         <v>255</v>
       </c>
       <c r="B256" s="4" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C256" s="4" t="s">
         <v>25</v>
@@ -26280,15 +26280,15 @@
         <v>55</v>
       </c>
     </row>
-    <row r="257" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A257" s="1">
         <v>256</v>
       </c>
       <c r="B257" s="4" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C257" s="4" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D257" s="4" t="s">
         <v>86</v>
@@ -26372,12 +26372,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="258" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A258" s="1">
         <v>257</v>
       </c>
       <c r="B258" s="4" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C258" s="4" t="s">
         <v>25</v>
@@ -26464,12 +26464,12 @@
         <v>42</v>
       </c>
     </row>
-    <row r="259" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A259" s="1">
         <v>258</v>
       </c>
       <c r="B259" s="4" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C259" s="4" t="s">
         <v>60</v>
@@ -26556,12 +26556,12 @@
         <v>47</v>
       </c>
     </row>
-    <row r="260" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A260" s="1">
         <v>259</v>
       </c>
       <c r="B260" s="4" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C260" s="4" t="s">
         <v>66</v>
@@ -26648,12 +26648,12 @@
         <v>40</v>
       </c>
     </row>
-    <row r="261" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A261" s="1">
         <v>260</v>
       </c>
       <c r="B261" s="4" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C261" s="4" t="s">
         <v>169</v>
@@ -26740,12 +26740,12 @@
         <v>45</v>
       </c>
     </row>
-    <row r="262" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A262" s="1">
         <v>261</v>
       </c>
       <c r="B262" s="4" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C262" s="4" t="s">
         <v>25</v>
@@ -26832,12 +26832,12 @@
         <v>42</v>
       </c>
     </row>
-    <row r="263" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A263" s="1">
         <v>262</v>
       </c>
       <c r="B263" s="4" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C263" s="4" t="s">
         <v>156</v>
@@ -26924,12 +26924,12 @@
         <v>26</v>
       </c>
     </row>
-    <row r="264" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A264" s="1">
         <v>263</v>
       </c>
       <c r="B264" s="4" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C264" s="4" t="s">
         <v>25</v>
@@ -27016,15 +27016,15 @@
         <v>34</v>
       </c>
     </row>
-    <row r="265" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A265" s="1">
         <v>264</v>
       </c>
       <c r="B265" s="4" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C265" s="4" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D265" s="4" t="s">
         <v>46</v>
@@ -27108,12 +27108,12 @@
         <v>51</v>
       </c>
     </row>
-    <row r="266" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A266" s="1">
         <v>265</v>
       </c>
       <c r="B266" s="4" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C266" s="4" t="s">
         <v>25</v>
@@ -27200,12 +27200,12 @@
         <v>46</v>
       </c>
     </row>
-    <row r="267" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A267" s="1">
         <v>266</v>
       </c>
       <c r="B267" s="4" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C267" s="4" t="s">
         <v>25</v>
@@ -27292,12 +27292,12 @@
         <v>22</v>
       </c>
     </row>
-    <row r="268" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A268" s="1">
         <v>267</v>
       </c>
       <c r="B268" s="4" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C268" s="4" t="s">
         <v>25</v>
@@ -27384,12 +27384,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="269" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A269" s="1">
         <v>268</v>
       </c>
       <c r="B269" s="4" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C269" s="4" t="s">
         <v>21</v>
@@ -27476,12 +27476,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="270" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A270" s="1">
         <v>269</v>
       </c>
       <c r="B270" s="4" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C270" s="4" t="s">
         <v>96</v>
@@ -27568,12 +27568,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="271" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A271" s="1">
         <v>270</v>
       </c>
       <c r="B271" s="4" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C271" s="4" t="s">
         <v>25</v>
@@ -27660,12 +27660,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="272" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A272" s="1">
         <v>271</v>
       </c>
       <c r="B272" s="4" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C272" s="4" t="s">
         <v>225</v>
@@ -27752,12 +27752,12 @@
         <v>106</v>
       </c>
     </row>
-    <row r="273" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A273" s="1">
         <v>272</v>
       </c>
       <c r="B273" s="4" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C273" s="4" t="s">
         <v>25</v>
@@ -27844,12 +27844,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="274" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A274" s="1">
         <v>273</v>
       </c>
       <c r="B274" s="4" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C274" s="4" t="s">
         <v>25</v>
@@ -27936,12 +27936,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="275" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A275" s="1">
         <v>274</v>
       </c>
       <c r="B275" s="4" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C275" s="4" t="s">
         <v>156</v>
@@ -28028,12 +28028,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="276" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A276" s="1">
         <v>275</v>
       </c>
       <c r="B276" s="4" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C276" s="4" t="s">
         <v>25</v>
@@ -28120,12 +28120,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="277" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A277" s="1">
         <v>276</v>
       </c>
       <c r="B277" s="4" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C277" s="4" t="s">
         <v>96</v>
@@ -28212,12 +28212,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="278" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A278" s="1">
         <v>277</v>
       </c>
       <c r="B278" s="4" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C278" s="4" t="s">
         <v>25</v>
@@ -28304,15 +28304,15 @@
         <v>7</v>
       </c>
     </row>
-    <row r="279" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A279" s="1">
         <v>278</v>
       </c>
       <c r="B279" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="C279" s="4" t="s">
         <v>375</v>
-      </c>
-      <c r="C279" s="4" t="s">
-        <v>376</v>
       </c>
       <c r="D279" s="4" t="s">
         <v>28</v>
@@ -28396,12 +28396,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="280" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A280" s="1">
         <v>279</v>
       </c>
       <c r="B280" s="4" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C280" s="4" t="s">
         <v>25</v>
@@ -28488,12 +28488,12 @@
         <v>23</v>
       </c>
     </row>
-    <row r="281" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A281" s="1">
         <v>280</v>
       </c>
       <c r="B281" s="4" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C281" s="4" t="s">
         <v>218</v>
@@ -28580,12 +28580,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="282" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A282" s="1">
         <v>281</v>
       </c>
       <c r="B282" s="4" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C282" s="4" t="s">
         <v>156</v>
@@ -28672,15 +28672,15 @@
         <v>39</v>
       </c>
     </row>
-    <row r="283" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A283" s="1">
         <v>282</v>
       </c>
       <c r="B283" s="4" t="s">
+        <v>379</v>
+      </c>
+      <c r="C283" s="4" t="s">
         <v>380</v>
-      </c>
-      <c r="C283" s="4" t="s">
-        <v>381</v>
       </c>
       <c r="D283" s="4" t="s">
         <v>111</v>
@@ -28764,12 +28764,12 @@
         <v>42</v>
       </c>
     </row>
-    <row r="284" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A284" s="1">
         <v>283</v>
       </c>
       <c r="B284" s="4" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C284" s="4" t="s">
         <v>56</v>
@@ -28856,12 +28856,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="285" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A285" s="1">
         <v>284</v>
       </c>
       <c r="B285" s="4" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C285" s="4" t="s">
         <v>25</v>
@@ -28948,12 +28948,12 @@
         <v>48</v>
       </c>
     </row>
-    <row r="286" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A286" s="1">
         <v>285</v>
       </c>
       <c r="B286" s="4" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C286" s="4" t="s">
         <v>25</v>
@@ -29040,12 +29040,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="287" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A287" s="1">
         <v>286</v>
       </c>
       <c r="B287" s="4" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C287" s="4" t="s">
         <v>25</v>
@@ -29132,12 +29132,12 @@
         <v>22</v>
       </c>
     </row>
-    <row r="288" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A288" s="1">
         <v>287</v>
       </c>
       <c r="B288" s="4" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C288" s="4" t="s">
         <v>96</v>
@@ -29224,12 +29224,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="289" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A289" s="1">
         <v>288</v>
       </c>
       <c r="B289" s="4" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C289" s="4" t="s">
         <v>25</v>
@@ -29316,12 +29316,12 @@
         <v>59</v>
       </c>
     </row>
-    <row r="290" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A290" s="1">
         <v>289</v>
       </c>
       <c r="B290" s="4" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C290" s="4" t="s">
         <v>25</v>
@@ -29408,12 +29408,12 @@
         <v>55</v>
       </c>
     </row>
-    <row r="291" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A291" s="1">
         <v>290</v>
       </c>
       <c r="B291" s="4" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C291" s="4" t="s">
         <v>25</v>
@@ -29500,15 +29500,15 @@
         <v>36</v>
       </c>
     </row>
-    <row r="292" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A292" s="1">
         <v>291</v>
       </c>
       <c r="B292" s="4" t="s">
+        <v>389</v>
+      </c>
+      <c r="C292" s="4" t="s">
         <v>390</v>
-      </c>
-      <c r="C292" s="4" t="s">
-        <v>391</v>
       </c>
       <c r="D292" s="4" t="s">
         <v>22</v>
@@ -29592,12 +29592,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="293" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A293" s="1">
         <v>292</v>
       </c>
       <c r="B293" s="4" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C293" s="4" t="s">
         <v>25</v>
@@ -29684,12 +29684,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="294" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A294" s="1">
         <v>293</v>
       </c>
       <c r="B294" s="4" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C294" s="4" t="s">
         <v>25</v>
@@ -29776,12 +29776,12 @@
         <v>27</v>
       </c>
     </row>
-    <row r="295" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A295" s="1">
         <v>294</v>
       </c>
       <c r="B295" s="4" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C295" s="4" t="s">
         <v>120</v>
@@ -29868,12 +29868,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="296" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A296" s="1">
         <v>295</v>
       </c>
       <c r="B296" s="4" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C296" s="4" t="s">
         <v>43</v>
@@ -29960,12 +29960,12 @@
         <v>36</v>
       </c>
     </row>
-    <row r="297" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A297" s="1">
         <v>296</v>
       </c>
       <c r="B297" s="4" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C297" s="4" t="s">
         <v>25</v>
@@ -30052,15 +30052,15 @@
         <v>39</v>
       </c>
     </row>
-    <row r="298" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A298" s="1">
         <v>297</v>
       </c>
       <c r="B298" s="4" t="s">
+        <v>396</v>
+      </c>
+      <c r="C298" s="4" t="s">
         <v>397</v>
-      </c>
-      <c r="C298" s="4" t="s">
-        <v>398</v>
       </c>
       <c r="D298" s="4" t="s">
         <v>46</v>
@@ -30144,12 +30144,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="299" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A299" s="1">
         <v>298</v>
       </c>
       <c r="B299" s="4" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C299" s="4" t="s">
         <v>43</v>
@@ -30236,15 +30236,15 @@
         <v>28</v>
       </c>
     </row>
-    <row r="300" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A300" s="1">
         <v>299</v>
       </c>
       <c r="B300" s="4" t="s">
+        <v>399</v>
+      </c>
+      <c r="C300" s="4" t="s">
         <v>400</v>
-      </c>
-      <c r="C300" s="4" t="s">
-        <v>401</v>
       </c>
       <c r="D300" s="4" t="s">
         <v>22</v>
@@ -30328,12 +30328,12 @@
         <v>51</v>
       </c>
     </row>
-    <row r="301" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A301" s="1">
         <v>300</v>
       </c>
       <c r="B301" s="4" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C301" s="4" t="s">
         <v>43</v>
@@ -30420,12 +30420,12 @@
         <v>54</v>
       </c>
     </row>
-    <row r="302" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A302" s="1">
         <v>301</v>
       </c>
       <c r="B302" s="4" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C302" s="4" t="s">
         <v>66</v>
@@ -30512,12 +30512,12 @@
         <v>39</v>
       </c>
     </row>
-    <row r="303" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A303" s="1">
         <v>302</v>
       </c>
       <c r="B303" s="4" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C303" s="4" t="s">
         <v>25</v>
@@ -30604,12 +30604,12 @@
         <v>37</v>
       </c>
     </row>
-    <row r="304" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A304" s="1">
         <v>303</v>
       </c>
       <c r="B304" s="4" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C304" s="4" t="s">
         <v>60</v>
@@ -30696,15 +30696,15 @@
         <v>49</v>
       </c>
     </row>
-    <row r="305" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A305" s="1">
         <v>304</v>
       </c>
       <c r="B305" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C305" s="4" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D305" s="4" t="s">
         <v>22</v>
@@ -30788,12 +30788,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="306" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A306" s="1">
         <v>305</v>
       </c>
       <c r="B306" s="4" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C306" s="4" t="s">
         <v>70</v>
@@ -30880,15 +30880,15 @@
         <v>84</v>
       </c>
     </row>
-    <row r="307" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A307" s="1">
         <v>306</v>
       </c>
       <c r="B307" s="4" t="s">
+        <v>407</v>
+      </c>
+      <c r="C307" s="4" t="s">
         <v>408</v>
-      </c>
-      <c r="C307" s="4" t="s">
-        <v>409</v>
       </c>
       <c r="D307" s="4" t="s">
         <v>22</v>
@@ -30972,12 +30972,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="308" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A308" s="1">
         <v>307</v>
       </c>
       <c r="B308" s="4" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C308" s="4" t="s">
         <v>56</v>
@@ -31064,15 +31064,15 @@
         <v>26</v>
       </c>
     </row>
-    <row r="309" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A309" s="1">
         <v>308</v>
       </c>
       <c r="B309" s="4" t="s">
+        <v>410</v>
+      </c>
+      <c r="C309" s="4" t="s">
         <v>411</v>
-      </c>
-      <c r="C309" s="4" t="s">
-        <v>412</v>
       </c>
       <c r="D309" s="4" t="s">
         <v>86</v>
@@ -31156,12 +31156,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="310" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A310" s="1">
         <v>309</v>
       </c>
       <c r="B310" s="4" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C310" s="4" t="s">
         <v>25</v>
@@ -31248,12 +31248,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="311" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A311" s="1">
         <v>310</v>
       </c>
       <c r="B311" s="4" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C311" s="4" t="s">
         <v>52</v>
@@ -31340,12 +31340,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="312" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A312" s="1">
         <v>311</v>
       </c>
       <c r="B312" s="4" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C312" s="4" t="s">
         <v>25</v>
@@ -31432,12 +31432,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="313" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A313" s="1">
         <v>312</v>
       </c>
       <c r="B313" s="4" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C313" s="4" t="s">
         <v>25</v>
@@ -31524,12 +31524,12 @@
         <v>46</v>
       </c>
     </row>
-    <row r="314" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A314" s="1">
         <v>313</v>
       </c>
       <c r="B314" s="4" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C314" s="4" t="s">
         <v>25</v>
@@ -31616,12 +31616,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="315" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A315" s="1">
         <v>314</v>
       </c>
       <c r="B315" s="4" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C315" s="4" t="s">
         <v>80</v>
@@ -31708,12 +31708,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="316" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A316" s="1">
         <v>315</v>
       </c>
       <c r="B316" s="4" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C316" s="4" t="s">
         <v>74</v>
@@ -31800,12 +31800,12 @@
         <v>37</v>
       </c>
     </row>
-    <row r="317" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A317" s="1">
         <v>316</v>
       </c>
       <c r="B317" s="4" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C317" s="4" t="s">
         <v>43</v>
@@ -31892,12 +31892,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="318" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A318" s="1">
         <v>317</v>
       </c>
       <c r="B318" s="4" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C318" s="4" t="s">
         <v>25</v>
@@ -31984,15 +31984,15 @@
         <v>45</v>
       </c>
     </row>
-    <row r="319" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A319" s="1">
         <v>318</v>
       </c>
       <c r="B319" s="4" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C319" s="4" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D319" s="4" t="s">
         <v>46</v>
@@ -32076,15 +32076,15 @@
         <v>44</v>
       </c>
     </row>
-    <row r="320" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A320" s="1">
         <v>319</v>
       </c>
       <c r="B320" s="4" t="s">
+        <v>422</v>
+      </c>
+      <c r="C320" s="4" t="s">
         <v>423</v>
-      </c>
-      <c r="C320" s="4" t="s">
-        <v>424</v>
       </c>
       <c r="D320" s="4" t="s">
         <v>131</v>
@@ -32168,12 +32168,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="321" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A321" s="1">
         <v>320</v>
       </c>
       <c r="B321" s="4" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C321" s="4" t="s">
         <v>60</v>
@@ -32260,12 +32260,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="322" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A322" s="1">
         <v>321</v>
       </c>
       <c r="B322" s="4" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C322" s="4" t="s">
         <v>25</v>
@@ -32352,12 +32352,12 @@
         <v>36</v>
       </c>
     </row>
-    <row r="323" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A323" s="1">
         <v>322</v>
       </c>
       <c r="B323" s="4" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C323" s="4" t="s">
         <v>60</v>
@@ -32444,12 +32444,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="324" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A324" s="1">
         <v>323</v>
       </c>
       <c r="B324" s="4" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C324" s="4" t="s">
         <v>25</v>
@@ -32536,12 +32536,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="325" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A325" s="1">
         <v>324</v>
       </c>
       <c r="B325" s="4" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C325" s="4" t="s">
         <v>25</v>
@@ -32628,12 +32628,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="326" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A326" s="1">
         <v>325</v>
       </c>
       <c r="B326" s="4" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C326" s="4" t="s">
         <v>74</v>
@@ -32720,12 +32720,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="327" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A327" s="1">
         <v>326</v>
       </c>
       <c r="B327" s="4" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C327" s="4" t="s">
         <v>163</v>
@@ -32812,12 +32812,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="328" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A328" s="1">
         <v>327</v>
       </c>
       <c r="B328" s="4" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C328" s="4" t="s">
         <v>25</v>
@@ -32904,12 +32904,12 @@
         <v>23</v>
       </c>
     </row>
-    <row r="329" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A329" s="1">
         <v>328</v>
       </c>
       <c r="B329" s="4" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C329" s="4" t="s">
         <v>96</v>
@@ -32996,12 +32996,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="330" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A330" s="1">
         <v>329</v>
       </c>
       <c r="B330" s="4" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C330" s="4" t="s">
         <v>40</v>
@@ -33088,12 +33088,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="331" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A331" s="1">
         <v>330</v>
       </c>
       <c r="B331" s="4" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C331" s="4" t="s">
         <v>84</v>
@@ -33180,12 +33180,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="332" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A332" s="1">
         <v>331</v>
       </c>
       <c r="B332" s="4" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C332" s="4" t="s">
         <v>115</v>
@@ -33272,12 +33272,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="333" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A333" s="1">
         <v>332</v>
       </c>
       <c r="B333" s="4" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C333" s="4" t="s">
         <v>25</v>
@@ -33364,12 +33364,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="334" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A334" s="1">
         <v>333</v>
       </c>
       <c r="B334" s="4" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C334" s="4" t="s">
         <v>242</v>
@@ -33456,12 +33456,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="335" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A335" s="1">
         <v>334</v>
       </c>
       <c r="B335" s="4" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C335" s="4" t="s">
         <v>25</v>
@@ -33548,12 +33548,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="336" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A336" s="1">
         <v>335</v>
       </c>
       <c r="B336" s="4" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C336" s="4" t="s">
         <v>96</v>
@@ -33640,15 +33640,15 @@
         <v>8</v>
       </c>
     </row>
-    <row r="337" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A337" s="1">
         <v>336</v>
       </c>
       <c r="B337" s="4" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C337" s="4" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D337" s="4" t="s">
         <v>81</v>
@@ -33732,12 +33732,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="338" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A338" s="1">
         <v>337</v>
       </c>
       <c r="B338" s="4" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C338" s="4" t="s">
         <v>196</v>
@@ -33824,12 +33824,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="339" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A339" s="1">
         <v>338</v>
       </c>
       <c r="B339" s="4" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C339" s="4" t="s">
         <v>218</v>
@@ -33916,12 +33916,12 @@
         <v>36</v>
       </c>
     </row>
-    <row r="340" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A340" s="1">
         <v>339</v>
       </c>
       <c r="B340" s="4" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C340" s="4" t="s">
         <v>25</v>
@@ -34008,12 +34008,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="341" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A341" s="1">
         <v>340</v>
       </c>
       <c r="B341" s="4" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C341" s="4" t="s">
         <v>25</v>
@@ -34100,12 +34100,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="342" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A342" s="1">
         <v>341</v>
       </c>
       <c r="B342" s="4" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C342" s="4" t="s">
         <v>25</v>
@@ -34192,12 +34192,12 @@
         <v>33</v>
       </c>
     </row>
-    <row r="343" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A343" s="1">
         <v>342</v>
       </c>
       <c r="B343" s="4" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C343" s="4" t="s">
         <v>25</v>
@@ -34284,12 +34284,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="344" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A344" s="1">
         <v>343</v>
       </c>
       <c r="B344" s="4" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C344" s="4" t="s">
         <v>56</v>
@@ -34376,12 +34376,12 @@
         <v>23</v>
       </c>
     </row>
-    <row r="345" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A345" s="1">
         <v>344</v>
       </c>
       <c r="B345" s="4" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C345" s="4" t="s">
         <v>25</v>
@@ -34468,12 +34468,12 @@
         <v>46</v>
       </c>
     </row>
-    <row r="346" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A346" s="1">
         <v>345</v>
       </c>
       <c r="B346" s="4" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C346" s="4" t="s">
         <v>84</v>
@@ -34560,12 +34560,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="347" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A347" s="1">
         <v>346</v>
       </c>
       <c r="B347" s="4" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C347" s="4" t="s">
         <v>25</v>
@@ -34652,12 +34652,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="348" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A348" s="1">
         <v>347</v>
       </c>
       <c r="B348" s="4" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C348" s="4" t="s">
         <v>25</v>
@@ -34744,12 +34744,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="349" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A349" s="1">
         <v>348</v>
       </c>
       <c r="B349" s="4" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C349" s="4" t="s">
         <v>25</v>
@@ -34836,12 +34836,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="350" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A350" s="1">
         <v>349</v>
       </c>
       <c r="B350" s="4" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C350" s="4" t="s">
         <v>225</v>
@@ -34928,12 +34928,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="351" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A351" s="1">
         <v>350</v>
       </c>
       <c r="B351" s="4" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C351" s="4" t="s">
         <v>21</v>
@@ -35020,12 +35020,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="352" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A352" s="1">
         <v>351</v>
       </c>
       <c r="B352" s="4" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C352" s="4" t="s">
         <v>147</v>
@@ -35112,12 +35112,12 @@
         <v>26</v>
       </c>
     </row>
-    <row r="353" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A353" s="1">
         <v>352</v>
       </c>
       <c r="B353" s="4" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C353" s="4" t="s">
         <v>147</v>
@@ -35204,12 +35204,12 @@
         <v>36</v>
       </c>
     </row>
-    <row r="354" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A354" s="1">
         <v>353</v>
       </c>
       <c r="B354" s="4" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C354" s="4" t="s">
         <v>156</v>
@@ -35296,12 +35296,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="355" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A355" s="1">
         <v>354</v>
       </c>
       <c r="B355" s="4" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C355" s="4" t="s">
         <v>151</v>
@@ -35388,12 +35388,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="356" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A356" s="1">
         <v>355</v>
       </c>
       <c r="B356" s="4" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C356" s="4" t="s">
         <v>166</v>
@@ -35480,12 +35480,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="357" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A357" s="1">
         <v>356</v>
       </c>
       <c r="B357" s="4" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C357" s="4" t="s">
         <v>60</v>
@@ -35572,15 +35572,15 @@
         <v>18</v>
       </c>
     </row>
-    <row r="358" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A358" s="1">
         <v>357</v>
       </c>
       <c r="B358" s="4" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C358" s="4" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="D358" s="4" t="s">
         <v>86</v>
@@ -35664,12 +35664,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="359" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A359" s="1">
         <v>358</v>
       </c>
       <c r="B359" s="4" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C359" s="4" t="s">
         <v>147</v>
@@ -35756,12 +35756,12 @@
         <v>27</v>
       </c>
     </row>
-    <row r="360" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A360" s="1">
         <v>359</v>
       </c>
       <c r="B360" s="4" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C360" s="4" t="s">
         <v>25</v>
@@ -35848,12 +35848,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="361" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A361" s="1">
         <v>360</v>
       </c>
       <c r="B361" s="4" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C361" s="4" t="s">
         <v>25</v>
@@ -35940,12 +35940,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="362" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A362" s="1">
         <v>361</v>
       </c>
       <c r="B362" s="4" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C362" s="4" t="s">
         <v>156</v>
@@ -36032,12 +36032,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="363" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A363" s="1">
         <v>362</v>
       </c>
       <c r="B363" s="4" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C363" s="4" t="s">
         <v>66</v>
@@ -36124,15 +36124,15 @@
         <v>13</v>
       </c>
     </row>
-    <row r="364" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A364" s="1">
         <v>363</v>
       </c>
       <c r="B364" s="4" t="s">
+        <v>465</v>
+      </c>
+      <c r="C364" s="4" t="s">
         <v>466</v>
-      </c>
-      <c r="C364" s="4" t="s">
-        <v>467</v>
       </c>
       <c r="D364" s="4" t="s">
         <v>86</v>
@@ -36216,15 +36216,15 @@
         <v>22</v>
       </c>
     </row>
-    <row r="365" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A365" s="1">
         <v>364</v>
       </c>
       <c r="B365" s="4" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C365" s="4" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D365" s="4" t="s">
         <v>22</v>
@@ -36308,12 +36308,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="366" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A366" s="1">
         <v>365</v>
       </c>
       <c r="B366" s="4" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C366" s="4" t="s">
         <v>25</v>
@@ -36400,12 +36400,12 @@
         <v>22</v>
       </c>
     </row>
-    <row r="367" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A367" s="1">
         <v>366</v>
       </c>
       <c r="B367" s="4" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C367" s="4" t="s">
         <v>225</v>
@@ -36492,12 +36492,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="368" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A368" s="1">
         <v>367</v>
       </c>
       <c r="B368" s="4" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C368" s="4" t="s">
         <v>43</v>
@@ -36584,12 +36584,12 @@
         <v>23</v>
       </c>
     </row>
-    <row r="369" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A369" s="1">
         <v>368</v>
       </c>
       <c r="B369" s="4" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C369" s="4" t="s">
         <v>25</v>
@@ -36676,12 +36676,12 @@
         <v>27</v>
       </c>
     </row>
-    <row r="370" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A370" s="1">
         <v>369</v>
       </c>
       <c r="B370" s="4" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C370" s="4" t="s">
         <v>60</v>
@@ -36768,12 +36768,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="371" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A371" s="1">
         <v>370</v>
       </c>
       <c r="B371" s="4" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C371" s="4" t="s">
         <v>84</v>
@@ -36860,12 +36860,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="372" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A372" s="1">
         <v>371</v>
       </c>
       <c r="B372" s="4" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C372" s="4" t="s">
         <v>25</v>
@@ -36952,12 +36952,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="373" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A373" s="1">
         <v>372</v>
       </c>
       <c r="B373" s="4" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C373" s="4" t="s">
         <v>156</v>
@@ -37044,12 +37044,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="374" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A374" s="1">
         <v>373</v>
       </c>
       <c r="B374" s="4" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C374" s="4" t="s">
         <v>25</v>
@@ -37136,12 +37136,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="375" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A375" s="1">
         <v>374</v>
       </c>
       <c r="B375" s="4" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C375" s="4" t="s">
         <v>25</v>
@@ -37228,15 +37228,15 @@
         <v>36</v>
       </c>
     </row>
-    <row r="376" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A376" s="1">
         <v>375</v>
       </c>
       <c r="B376" s="4" t="s">
+        <v>478</v>
+      </c>
+      <c r="C376" s="4" t="s">
         <v>479</v>
-      </c>
-      <c r="C376" s="4" t="s">
-        <v>480</v>
       </c>
       <c r="D376" s="4" t="s">
         <v>81</v>
@@ -37320,12 +37320,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="377" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A377" s="1">
         <v>376</v>
       </c>
       <c r="B377" s="4" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C377" s="4" t="s">
         <v>25</v>
@@ -37412,15 +37412,15 @@
         <v>8</v>
       </c>
     </row>
-    <row r="378" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A378" s="1">
         <v>377</v>
       </c>
       <c r="B378" s="4" t="s">
+        <v>481</v>
+      </c>
+      <c r="C378" s="4" t="s">
         <v>482</v>
-      </c>
-      <c r="C378" s="4" t="s">
-        <v>483</v>
       </c>
       <c r="D378" s="4" t="s">
         <v>86</v>
@@ -37504,12 +37504,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="379" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A379" s="1">
         <v>378</v>
       </c>
       <c r="B379" s="4" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C379" s="4" t="s">
         <v>25</v>
@@ -37596,12 +37596,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="380" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A380" s="1">
         <v>379</v>
       </c>
       <c r="B380" s="4" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C380" s="4" t="s">
         <v>25</v>
@@ -37688,12 +37688,12 @@
         <v>23</v>
       </c>
     </row>
-    <row r="381" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A381" s="1">
         <v>380</v>
       </c>
       <c r="B381" s="4" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C381" s="4" t="s">
         <v>25</v>
@@ -37780,12 +37780,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="382" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A382" s="1">
         <v>381</v>
       </c>
       <c r="B382" s="4" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C382" s="4" t="s">
         <v>25</v>
@@ -37872,12 +37872,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="383" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A383" s="1">
         <v>382</v>
       </c>
       <c r="B383" s="4" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C383" s="4" t="s">
         <v>25</v>
@@ -37964,12 +37964,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="384" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A384" s="1">
         <v>383</v>
       </c>
       <c r="B384" s="4" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C384" s="4" t="s">
         <v>115</v>
@@ -38056,12 +38056,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="385" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A385" s="1">
         <v>384</v>
       </c>
       <c r="B385" s="4" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C385" s="4" t="s">
         <v>96</v>
@@ -38148,12 +38148,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="386" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A386" s="1">
         <v>385</v>
       </c>
       <c r="B386" s="4" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C386" s="4" t="s">
         <v>25</v>
@@ -38240,12 +38240,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="387" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A387" s="1">
         <v>386</v>
       </c>
       <c r="B387" s="4" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C387" s="4" t="s">
         <v>25</v>
@@ -38332,15 +38332,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="388" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A388" s="1">
         <v>387</v>
       </c>
       <c r="B388" s="4" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C388" s="4" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D388" s="4" t="s">
         <v>131</v>
@@ -38424,12 +38424,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="389" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A389" s="1">
         <v>388</v>
       </c>
       <c r="B389" s="4" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C389" s="4" t="s">
         <v>25</v>
@@ -38516,15 +38516,15 @@
         <v>12</v>
       </c>
     </row>
-    <row r="390" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A390" s="1">
         <v>389</v>
       </c>
       <c r="B390" s="4" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C390" s="4" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="D390" s="4" t="s">
         <v>111</v>
@@ -38608,12 +38608,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="391" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A391" s="1">
         <v>390</v>
       </c>
       <c r="B391" s="4" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C391" s="4" t="s">
         <v>25</v>
@@ -38700,12 +38700,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="392" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A392" s="1">
         <v>391</v>
       </c>
       <c r="B392" s="4" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C392" s="4" t="s">
         <v>25</v>
@@ -38792,12 +38792,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="393" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A393" s="1">
         <v>392</v>
       </c>
       <c r="B393" s="4" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C393" s="4" t="s">
         <v>169</v>
@@ -38884,12 +38884,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="394" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A394" s="1">
         <v>393</v>
       </c>
       <c r="B394" s="4" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C394" s="4" t="s">
         <v>66</v>
@@ -38976,12 +38976,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="395" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A395" s="1">
         <v>394</v>
       </c>
       <c r="B395" s="4" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C395" s="4" t="s">
         <v>52</v>
@@ -39068,12 +39068,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="396" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A396" s="1">
         <v>395</v>
       </c>
       <c r="B396" s="4" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C396" s="4" t="s">
         <v>25</v>
@@ -39160,12 +39160,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="397" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A397" s="1">
         <v>396</v>
       </c>
       <c r="B397" s="4" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C397" s="4" t="s">
         <v>25</v>
@@ -39252,15 +39252,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="398" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A398" s="1">
         <v>397</v>
       </c>
       <c r="B398" s="4" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C398" s="4" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D398" s="4" t="s">
         <v>22</v>
@@ -39344,12 +39344,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="399" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A399" s="1">
         <v>398</v>
       </c>
       <c r="B399" s="4" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C399" s="4" t="s">
         <v>25</v>
@@ -39436,12 +39436,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="400" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A400" s="1">
         <v>399</v>
       </c>
       <c r="B400" s="4" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C400" s="4" t="s">
         <v>43</v>
@@ -39528,12 +39528,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="401" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A401" s="1">
         <v>400</v>
       </c>
       <c r="B401" s="4" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C401" s="4" t="s">
         <v>43</v>
@@ -39620,12 +39620,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="402" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A402" s="1">
         <v>401</v>
       </c>
       <c r="B402" s="4" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C402" s="4" t="s">
         <v>25</v>
@@ -39712,7 +39712,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="403" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A403" s="1">
         <v>402</v>
       </c>
@@ -39804,12 +39804,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="404" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A404" s="1">
         <v>403</v>
       </c>
       <c r="B404" s="4" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="C404" s="4" t="s">
         <v>25</v>
@@ -39896,12 +39896,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="405" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A405" s="1">
         <v>404</v>
       </c>
       <c r="B405" s="4" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="C405" s="4" t="s">
         <v>227</v>
@@ -39988,12 +39988,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="406" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A406" s="1">
         <v>405</v>
       </c>
       <c r="B406" s="4" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C406" s="4" t="s">
         <v>25</v>
@@ -40080,15 +40080,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="407" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A407" s="1">
         <v>406</v>
       </c>
       <c r="B407" s="4" t="s">
+        <v>510</v>
+      </c>
+      <c r="C407" s="4" t="s">
         <v>511</v>
-      </c>
-      <c r="C407" s="4" t="s">
-        <v>512</v>
       </c>
       <c r="D407" s="4" t="s">
         <v>81</v>
@@ -40172,12 +40172,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="408" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A408" s="1">
         <v>407</v>
       </c>
       <c r="B408" s="4" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C408" s="4" t="s">
         <v>25</v>
@@ -40264,12 +40264,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="409" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A409" s="1">
         <v>408</v>
       </c>
       <c r="B409" s="4" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="C409" s="4" t="s">
         <v>43</v>
@@ -40356,12 +40356,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="410" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A410" s="1">
         <v>409</v>
       </c>
       <c r="B410" s="4" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="C410" s="4" t="s">
         <v>25</v>
@@ -40448,12 +40448,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="411" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A411" s="1">
         <v>410</v>
       </c>
       <c r="B411" s="4" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="C411" s="4" t="s">
         <v>25</v>
@@ -40540,12 +40540,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="412" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A412" s="1">
         <v>411</v>
       </c>
       <c r="B412" s="4" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="C412" s="4" t="s">
         <v>43</v>
@@ -40632,12 +40632,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="413" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A413" s="1">
         <v>412</v>
       </c>
       <c r="B413" s="4" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="C413" s="4" t="s">
         <v>43</v>
@@ -40724,12 +40724,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="414" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A414" s="1">
         <v>413</v>
       </c>
       <c r="B414" s="4" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="C414" s="4" t="s">
         <v>25</v>
@@ -40816,12 +40816,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="415" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A415" s="1">
         <v>414</v>
       </c>
       <c r="B415" s="4" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="C415" s="4" t="s">
         <v>96</v>
@@ -40908,12 +40908,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="416" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A416" s="1">
         <v>415</v>
       </c>
       <c r="B416" s="4" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="C416" s="4" t="s">
         <v>43</v>
@@ -41000,12 +41000,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="417" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A417" s="1">
         <v>416</v>
       </c>
       <c r="B417" s="4" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="C417" s="4" t="s">
         <v>25</v>
@@ -41092,12 +41092,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="418" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A418" s="1">
         <v>417</v>
       </c>
       <c r="B418" s="4" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="C418" s="4" t="s">
         <v>225</v>
@@ -41184,15 +41184,15 @@
         <v>8</v>
       </c>
     </row>
-    <row r="419" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A419" s="1">
         <v>418</v>
       </c>
       <c r="B419" s="4" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="C419" s="4" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D419" s="4" t="s">
         <v>22</v>
@@ -41276,12 +41276,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="420" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A420" s="1">
         <v>419</v>
       </c>
       <c r="B420" s="4" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C420" s="4" t="s">
         <v>25</v>
@@ -41368,12 +41368,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="421" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A421" s="1">
         <v>420</v>
       </c>
       <c r="B421" s="4" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C421" s="4" t="s">
         <v>25</v>
@@ -41460,15 +41460,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="422" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A422" s="1">
         <v>421</v>
       </c>
       <c r="B422" s="4" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C422" s="4" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D422" s="4" t="s">
         <v>28</v>
@@ -41552,15 +41552,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="423" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A423" s="1">
         <v>422</v>
       </c>
       <c r="B423" s="4" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="C423" s="4" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="D423" s="4" t="s">
         <v>28</v>
@@ -41644,12 +41644,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="424" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A424" s="1">
         <v>423</v>
       </c>
       <c r="B424" s="4" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="C424" s="4" t="s">
         <v>225</v>
@@ -41736,15 +41736,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="425" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A425" s="1">
         <v>424</v>
       </c>
       <c r="B425" s="4" t="s">
+        <v>528</v>
+      </c>
+      <c r="C425" s="4" t="s">
         <v>529</v>
-      </c>
-      <c r="C425" s="4" t="s">
-        <v>530</v>
       </c>
       <c r="D425" s="4" t="s">
         <v>28</v>
@@ -41828,12 +41828,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="426" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A426" s="1">
         <v>425</v>
       </c>
       <c r="B426" s="4" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C426" s="4" t="s">
         <v>25</v>
@@ -41920,12 +41920,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="427" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A427" s="1">
         <v>426</v>
       </c>
       <c r="B427" s="4" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C427" s="4" t="s">
         <v>66</v>
@@ -42012,12 +42012,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="428" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A428" s="1">
         <v>427</v>
       </c>
       <c r="B428" s="4" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="C428" s="4" t="s">
         <v>25</v>
@@ -42104,12 +42104,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="429" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A429" s="1">
         <v>428</v>
       </c>
       <c r="B429" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="C429" s="4" t="s">
         <v>25</v>
@@ -42196,12 +42196,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="430" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A430" s="1">
         <v>429</v>
       </c>
       <c r="B430" s="4" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C430" s="4" t="s">
         <v>96</v>
@@ -42288,12 +42288,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="431" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A431" s="1">
         <v>430</v>
       </c>
       <c r="B431" s="4" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="C431" s="4" t="s">
         <v>172</v>
@@ -42380,12 +42380,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="432" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A432" s="1">
         <v>431</v>
       </c>
       <c r="B432" s="4" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="C432" s="4" t="s">
         <v>40</v>
@@ -42472,12 +42472,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="433" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A433" s="1">
         <v>432</v>
       </c>
       <c r="B433" s="4" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="C433" s="4" t="s">
         <v>80</v>
@@ -42564,12 +42564,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="434" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A434" s="1">
         <v>433</v>
       </c>
       <c r="B434" s="4" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C434" s="4" t="s">
         <v>25</v>
@@ -42656,12 +42656,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="435" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A435" s="1">
         <v>434</v>
       </c>
       <c r="B435" s="4" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="C435" s="4" t="s">
         <v>52</v>
@@ -42748,12 +42748,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="436" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A436" s="1">
         <v>435</v>
       </c>
       <c r="B436" s="4" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C436" s="4" t="s">
         <v>25</v>
@@ -42840,12 +42840,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="437" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A437" s="1">
         <v>436</v>
       </c>
       <c r="B437" s="4" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="C437" s="4" t="s">
         <v>25</v>
@@ -42932,12 +42932,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="438" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A438" s="1">
         <v>437</v>
       </c>
       <c r="B438" s="4" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="C438" s="4" t="s">
         <v>25</v>
@@ -43024,15 +43024,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="439" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A439" s="1">
         <v>438</v>
       </c>
       <c r="B439" s="4" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="C439" s="4" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D439" s="4" t="s">
         <v>46</v>
@@ -43116,12 +43116,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="440" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A440" s="1">
         <v>439</v>
       </c>
       <c r="B440" s="4" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C440" s="4" t="s">
         <v>96</v>
@@ -43208,12 +43208,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="441" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A441" s="1">
         <v>440</v>
       </c>
       <c r="B441" s="4" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="C441" s="4" t="s">
         <v>25</v>
@@ -43300,12 +43300,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="442" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A442" s="1">
         <v>441</v>
       </c>
       <c r="B442" s="4" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="C442" s="4" t="s">
         <v>25</v>
@@ -43392,12 +43392,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="443" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A443" s="1">
         <v>442</v>
       </c>
       <c r="B443" s="4" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="C443" s="4" t="s">
         <v>25</v>
@@ -43484,12 +43484,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="444" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A444" s="1">
         <v>443</v>
       </c>
       <c r="B444" s="4" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="C444" s="4" t="s">
         <v>25</v>
@@ -43576,12 +43576,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="445" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A445" s="1">
         <v>444</v>
       </c>
       <c r="B445" s="4" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="C445" s="4" t="s">
         <v>25</v>
@@ -43668,15 +43668,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="446" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A446" s="1">
         <v>445</v>
       </c>
       <c r="B446" s="4" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C446" s="4" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D446" s="4" t="s">
         <v>137</v>
@@ -43760,12 +43760,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="447" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A447" s="1">
         <v>446</v>
       </c>
       <c r="B447" s="4" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="C447" s="4" t="s">
         <v>43</v>
@@ -43852,15 +43852,15 @@
         <v>7</v>
       </c>
     </row>
-    <row r="448" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A448" s="1">
         <v>447</v>
       </c>
       <c r="B448" s="4" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="C448" s="4" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D448" s="4" t="s">
         <v>28</v>
@@ -43944,15 +43944,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="449" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A449" s="1">
         <v>448</v>
       </c>
       <c r="B449" s="4" t="s">
+        <v>552</v>
+      </c>
+      <c r="C449" s="4" t="s">
         <v>553</v>
-      </c>
-      <c r="C449" s="4" t="s">
-        <v>554</v>
       </c>
       <c r="D449" s="4" t="s">
         <v>81</v>
@@ -44036,12 +44036,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="450" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A450" s="1">
         <v>449</v>
       </c>
       <c r="B450" s="4" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="C450" s="4" t="s">
         <v>25</v>
@@ -44126,12 +44126,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="451" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A451" s="1">
         <v>450</v>
       </c>
       <c r="B451" s="4" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="C451" s="4" t="s">
         <v>96</v>
@@ -44218,12 +44218,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="452" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A452" s="1">
         <v>451</v>
       </c>
       <c r="B452" s="4" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="C452" s="4" t="s">
         <v>227</v>
@@ -44310,12 +44310,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="453" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A453" s="1">
         <v>452</v>
       </c>
       <c r="B453" s="4" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C453" s="4" t="s">
         <v>25</v>
@@ -44402,12 +44402,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="454" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A454" s="1">
         <v>453</v>
       </c>
       <c r="B454" s="4" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="C454" s="4" t="s">
         <v>25</v>
@@ -44494,12 +44494,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="455" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A455" s="1">
         <v>454</v>
       </c>
       <c r="B455" s="4" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C455" s="4" t="s">
         <v>25</v>
@@ -44586,12 +44586,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="456" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A456" s="1">
         <v>455</v>
       </c>
       <c r="B456" s="4" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="C456" s="4" t="s">
         <v>84</v>
@@ -44678,15 +44678,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="457" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A457" s="1">
         <v>456</v>
       </c>
       <c r="B457" s="4" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="C457" s="4" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D457" s="4" t="s">
         <v>131</v>
@@ -44770,15 +44770,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="458" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A458" s="1">
         <v>457</v>
       </c>
       <c r="B458" s="4" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="C458" s="4" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D458" s="4" t="s">
         <v>22</v>
@@ -44862,12 +44862,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="459" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A459" s="1">
         <v>458</v>
       </c>
       <c r="B459" s="4" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="C459" s="4" t="s">
         <v>56</v>
@@ -44952,12 +44952,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="460" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A460" s="1">
         <v>459</v>
       </c>
       <c r="B460" s="4" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="C460" s="4" t="s">
         <v>25</v>
@@ -45044,12 +45044,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="461" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A461" s="1">
         <v>460</v>
       </c>
       <c r="B461" s="4" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="C461" s="4" t="s">
         <v>25</v>
@@ -45136,12 +45136,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="462" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A462" s="1">
         <v>461</v>
       </c>
       <c r="B462" s="4" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="C462" s="4" t="s">
         <v>25</v>
@@ -45228,12 +45228,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="463" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A463" s="1">
         <v>462</v>
       </c>
       <c r="B463" s="4" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="C463" s="4" t="s">
         <v>25</v>
@@ -45320,15 +45320,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="464" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A464" s="1">
         <v>463</v>
       </c>
       <c r="B464" s="4" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="C464" s="4" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D464" s="4" t="s">
         <v>22</v>
@@ -45412,12 +45412,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="465" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A465" s="1">
         <v>464</v>
       </c>
       <c r="B465" s="4" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="C465" s="4" t="s">
         <v>25</v>
@@ -45504,12 +45504,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="466" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A466" s="1">
         <v>465</v>
       </c>
       <c r="B466" s="4" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C466" s="4" t="s">
         <v>122</v>
@@ -45596,12 +45596,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="467" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A467" s="1">
         <v>466</v>
       </c>
       <c r="B467" s="4" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C467" s="4" t="s">
         <v>25</v>
@@ -45688,12 +45688,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="468" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A468" s="1">
         <v>467</v>
       </c>
       <c r="B468" s="4" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C468" s="4" t="s">
         <v>84</v>
@@ -45780,12 +45780,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="469" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A469" s="1">
         <v>468</v>
       </c>
       <c r="B469" s="4" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="C469" s="4" t="s">
         <v>25</v>
@@ -45872,15 +45872,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="470" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A470" s="1">
         <v>469</v>
       </c>
       <c r="B470" s="4" t="s">
+        <v>571</v>
+      </c>
+      <c r="C470" s="4" t="s">
         <v>572</v>
-      </c>
-      <c r="C470" s="4" t="s">
-        <v>573</v>
       </c>
       <c r="D470" s="4" t="s">
         <v>22</v>
@@ -45964,12 +45964,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="471" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A471" s="1">
         <v>470</v>
       </c>
       <c r="B471" s="4" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C471" s="4" t="s">
         <v>56</v>
@@ -46054,12 +46054,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="472" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A472" s="1">
         <v>471</v>
       </c>
       <c r="B472" s="4" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C472" s="4" t="s">
         <v>25</v>
@@ -46146,12 +46146,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="473" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A473" s="1">
         <v>472</v>
       </c>
       <c r="B473" s="4" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="C473" s="4" t="s">
         <v>25</v>
@@ -46238,12 +46238,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="474" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A474" s="1">
         <v>473</v>
       </c>
       <c r="B474" s="4" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C474" s="4" t="s">
         <v>25</v>
@@ -46330,12 +46330,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="475" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A475" s="1">
         <v>474</v>
       </c>
       <c r="B475" s="4" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="C475" s="4" t="s">
         <v>74</v>
@@ -46422,12 +46422,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="476" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A476" s="1">
         <v>475</v>
       </c>
       <c r="B476" s="4" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="C476" s="4" t="s">
         <v>52</v>
@@ -46514,12 +46514,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="477" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A477" s="1">
         <v>476</v>
       </c>
       <c r="B477" s="4" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="C477" s="4" t="s">
         <v>156</v>
@@ -46606,15 +46606,15 @@
         <v>8</v>
       </c>
     </row>
-    <row r="478" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A478" s="1">
         <v>477</v>
       </c>
       <c r="B478" s="4" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="C478" s="4" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="D478" s="4" t="s">
         <v>131</v>
@@ -46698,12 +46698,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="479" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A479" s="1">
         <v>478</v>
       </c>
       <c r="B479" s="4" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C479" s="4" t="s">
         <v>25</v>
@@ -46790,15 +46790,15 @@
         <v>6</v>
       </c>
     </row>
-    <row r="480" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A480" s="1">
         <v>479</v>
       </c>
       <c r="B480" s="4" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C480" s="4" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="D480" s="4" t="s">
         <v>46</v>
@@ -46882,12 +46882,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="481" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A481" s="1">
         <v>480</v>
       </c>
       <c r="B481" s="4" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C481" s="4" t="s">
         <v>74</v>
@@ -46974,12 +46974,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="482" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A482" s="1">
         <v>481</v>
       </c>
       <c r="B482" s="4" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="C482" s="4" t="s">
         <v>25</v>
@@ -47066,12 +47066,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="483" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A483" s="1">
         <v>482</v>
       </c>
       <c r="B483" s="4" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="C483" s="4" t="s">
         <v>25</v>
@@ -47158,12 +47158,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="484" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A484" s="1">
         <v>483</v>
       </c>
       <c r="B484" s="4" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="C484" s="4" t="s">
         <v>25</v>
@@ -47250,12 +47250,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="485" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A485" s="1">
         <v>484</v>
       </c>
       <c r="B485" s="4" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="C485" s="4" t="s">
         <v>25</v>
@@ -47342,12 +47342,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="486" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A486" s="1">
         <v>485</v>
       </c>
       <c r="B486" s="4" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="C486" s="4" t="s">
         <v>177</v>
@@ -47434,12 +47434,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="487" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A487" s="1">
         <v>486</v>
       </c>
       <c r="B487" s="4" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="C487" s="4" t="s">
         <v>96</v>
@@ -47526,15 +47526,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="488" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A488" s="1">
         <v>487</v>
       </c>
       <c r="B488" s="4" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="C488" s="4" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D488" s="4" t="s">
         <v>81</v>
@@ -47616,12 +47616,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="489" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A489" s="1">
         <v>488</v>
       </c>
       <c r="B489" s="4" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="C489" s="4" t="s">
         <v>25</v>
@@ -47708,15 +47708,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="490" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A490" s="1">
         <v>489</v>
       </c>
       <c r="B490" s="4" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="C490" s="4" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D490" s="4" t="s">
         <v>22</v>
@@ -47798,12 +47798,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="491" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A491" s="1">
         <v>490</v>
       </c>
       <c r="B491" s="4" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C491" s="4" t="s">
         <v>25</v>
@@ -47890,12 +47890,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="492" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A492" s="1">
         <v>491</v>
       </c>
       <c r="B492" s="4" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="C492" s="4" t="s">
         <v>84</v>
@@ -47982,12 +47982,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="493" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A493" s="1">
         <v>492</v>
       </c>
       <c r="B493" s="4" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="C493" s="4" t="s">
         <v>70</v>
@@ -48074,12 +48074,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="494" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A494" s="1">
         <v>493</v>
       </c>
       <c r="B494" s="4" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="C494" s="4" t="s">
         <v>25</v>
@@ -48166,12 +48166,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="495" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A495" s="1">
         <v>494</v>
       </c>
       <c r="B495" s="4" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="C495" s="4" t="s">
         <v>156</v>
@@ -48216,12 +48216,12 @@
       <c r="AC495" s="3"/>
       <c r="AD495" s="3"/>
     </row>
-    <row r="496" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A496" s="1">
         <v>495</v>
       </c>
       <c r="B496" s="4" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C496" s="4" t="s">
         <v>25</v>
@@ -48308,12 +48308,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="497" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A497" s="1">
         <v>496</v>
       </c>
       <c r="B497" s="4" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="C497" s="4" t="s">
         <v>25</v>
@@ -48400,12 +48400,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="498" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A498" s="1">
         <v>497</v>
       </c>
       <c r="B498" s="4" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="C498" s="4" t="s">
         <v>25</v>
@@ -48492,12 +48492,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="499" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A499" s="1">
         <v>498</v>
       </c>
       <c r="B499" s="4" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="C499" s="4" t="s">
         <v>25</v>
@@ -48584,12 +48584,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="500" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A500" s="1">
         <v>499</v>
       </c>
       <c r="B500" s="4" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="C500" s="4" t="s">
         <v>218</v>
@@ -48674,7 +48674,6 @@
         <v>1</v>
       </c>
     </row>
-    <row r="501" spans="1:30" ht="12" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/league_data/france/20/france_passing.xlsx
+++ b/data/league_data/france/20/france_passing.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sanjitvarma/Desktop/trial_git/Predicting-Football-Player-Transfer-Values/data/league_data/france/20/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70C60E81-0418-1E40-B259-3DBBFD582AF0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5196A99A-8341-5340-88DC-4D3E57D9B064}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="14720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1279,9 +1279,6 @@
     <t>Xeka</t>
   </si>
   <si>
-    <t>Rafael</t>
-  </si>
-  <si>
     <t>Anthony Caci</t>
   </si>
   <si>
@@ -1823,6 +1820,9 @@
   </si>
   <si>
     <t>Marcelo Filho</t>
+  </si>
+  <si>
+    <t>Rafael da Silva</t>
   </si>
 </sst>
 </file>
@@ -2692,8 +2692,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AD500"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A144" workbookViewId="0">
-      <selection activeCell="B167" sqref="B167"/>
+    <sheetView tabSelected="1" topLeftCell="A302" workbookViewId="0">
+      <selection activeCell="B317" sqref="B317"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -18005,7 +18005,7 @@
         <v>166</v>
       </c>
       <c r="B167" s="4" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="C167" s="4" t="s">
         <v>43</v>
@@ -31805,7 +31805,7 @@
         <v>316</v>
       </c>
       <c r="B317" s="4" t="s">
-        <v>419</v>
+        <v>600</v>
       </c>
       <c r="C317" s="4" t="s">
         <v>43</v>
@@ -31897,7 +31897,7 @@
         <v>317</v>
       </c>
       <c r="B318" s="4" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C318" s="4" t="s">
         <v>25</v>
@@ -31989,7 +31989,7 @@
         <v>318</v>
       </c>
       <c r="B319" s="4" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C319" s="4" t="s">
         <v>380</v>
@@ -32081,10 +32081,10 @@
         <v>319</v>
       </c>
       <c r="B320" s="4" t="s">
+        <v>421</v>
+      </c>
+      <c r="C320" s="4" t="s">
         <v>422</v>
-      </c>
-      <c r="C320" s="4" t="s">
-        <v>423</v>
       </c>
       <c r="D320" s="4" t="s">
         <v>131</v>
@@ -32173,7 +32173,7 @@
         <v>320</v>
       </c>
       <c r="B321" s="4" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C321" s="4" t="s">
         <v>60</v>
@@ -32265,7 +32265,7 @@
         <v>321</v>
       </c>
       <c r="B322" s="4" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C322" s="4" t="s">
         <v>25</v>
@@ -32357,7 +32357,7 @@
         <v>322</v>
       </c>
       <c r="B323" s="4" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C323" s="4" t="s">
         <v>60</v>
@@ -32449,7 +32449,7 @@
         <v>323</v>
       </c>
       <c r="B324" s="4" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C324" s="4" t="s">
         <v>25</v>
@@ -32541,7 +32541,7 @@
         <v>324</v>
       </c>
       <c r="B325" s="4" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C325" s="4" t="s">
         <v>25</v>
@@ -32633,7 +32633,7 @@
         <v>325</v>
       </c>
       <c r="B326" s="4" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C326" s="4" t="s">
         <v>74</v>
@@ -32725,7 +32725,7 @@
         <v>326</v>
       </c>
       <c r="B327" s="4" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C327" s="4" t="s">
         <v>163</v>
@@ -32817,7 +32817,7 @@
         <v>327</v>
       </c>
       <c r="B328" s="4" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C328" s="4" t="s">
         <v>25</v>
@@ -32909,7 +32909,7 @@
         <v>328</v>
       </c>
       <c r="B329" s="4" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C329" s="4" t="s">
         <v>96</v>
@@ -33001,7 +33001,7 @@
         <v>329</v>
       </c>
       <c r="B330" s="4" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C330" s="4" t="s">
         <v>40</v>
@@ -33093,7 +33093,7 @@
         <v>330</v>
       </c>
       <c r="B331" s="4" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C331" s="4" t="s">
         <v>84</v>
@@ -33185,7 +33185,7 @@
         <v>331</v>
       </c>
       <c r="B332" s="4" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C332" s="4" t="s">
         <v>115</v>
@@ -33277,7 +33277,7 @@
         <v>332</v>
       </c>
       <c r="B333" s="4" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C333" s="4" t="s">
         <v>25</v>
@@ -33369,7 +33369,7 @@
         <v>333</v>
       </c>
       <c r="B334" s="4" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C334" s="4" t="s">
         <v>242</v>
@@ -33553,7 +33553,7 @@
         <v>335</v>
       </c>
       <c r="B336" s="4" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C336" s="4" t="s">
         <v>96</v>
@@ -33645,7 +33645,7 @@
         <v>336</v>
       </c>
       <c r="B337" s="4" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C337" s="4" t="s">
         <v>390</v>
@@ -33737,7 +33737,7 @@
         <v>337</v>
       </c>
       <c r="B338" s="4" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C338" s="4" t="s">
         <v>196</v>
@@ -33829,7 +33829,7 @@
         <v>338</v>
       </c>
       <c r="B339" s="4" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C339" s="4" t="s">
         <v>218</v>
@@ -33921,7 +33921,7 @@
         <v>339</v>
       </c>
       <c r="B340" s="4" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C340" s="4" t="s">
         <v>25</v>
@@ -34013,7 +34013,7 @@
         <v>340</v>
       </c>
       <c r="B341" s="4" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C341" s="4" t="s">
         <v>25</v>
@@ -34105,7 +34105,7 @@
         <v>341</v>
       </c>
       <c r="B342" s="4" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C342" s="4" t="s">
         <v>25</v>
@@ -34197,7 +34197,7 @@
         <v>342</v>
       </c>
       <c r="B343" s="4" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C343" s="4" t="s">
         <v>25</v>
@@ -34289,7 +34289,7 @@
         <v>343</v>
       </c>
       <c r="B344" s="4" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C344" s="4" t="s">
         <v>56</v>
@@ -34381,7 +34381,7 @@
         <v>344</v>
       </c>
       <c r="B345" s="4" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C345" s="4" t="s">
         <v>25</v>
@@ -34473,7 +34473,7 @@
         <v>345</v>
       </c>
       <c r="B346" s="4" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C346" s="4" t="s">
         <v>84</v>
@@ -34565,7 +34565,7 @@
         <v>346</v>
       </c>
       <c r="B347" s="4" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C347" s="4" t="s">
         <v>25</v>
@@ -34749,7 +34749,7 @@
         <v>348</v>
       </c>
       <c r="B349" s="4" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C349" s="4" t="s">
         <v>25</v>
@@ -34841,7 +34841,7 @@
         <v>349</v>
       </c>
       <c r="B350" s="4" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C350" s="4" t="s">
         <v>225</v>
@@ -34933,7 +34933,7 @@
         <v>350</v>
       </c>
       <c r="B351" s="4" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C351" s="4" t="s">
         <v>21</v>
@@ -35025,7 +35025,7 @@
         <v>351</v>
       </c>
       <c r="B352" s="4" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C352" s="4" t="s">
         <v>147</v>
@@ -35117,7 +35117,7 @@
         <v>352</v>
       </c>
       <c r="B353" s="4" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C353" s="4" t="s">
         <v>147</v>
@@ -35209,7 +35209,7 @@
         <v>353</v>
       </c>
       <c r="B354" s="4" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C354" s="4" t="s">
         <v>156</v>
@@ -35301,7 +35301,7 @@
         <v>354</v>
       </c>
       <c r="B355" s="4" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C355" s="4" t="s">
         <v>151</v>
@@ -35393,7 +35393,7 @@
         <v>355</v>
       </c>
       <c r="B356" s="4" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C356" s="4" t="s">
         <v>166</v>
@@ -35485,7 +35485,7 @@
         <v>356</v>
       </c>
       <c r="B357" s="4" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C357" s="4" t="s">
         <v>60</v>
@@ -35577,7 +35577,7 @@
         <v>357</v>
       </c>
       <c r="B358" s="4" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C358" s="4" t="s">
         <v>408</v>
@@ -35669,7 +35669,7 @@
         <v>358</v>
       </c>
       <c r="B359" s="4" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C359" s="4" t="s">
         <v>147</v>
@@ -35761,7 +35761,7 @@
         <v>359</v>
       </c>
       <c r="B360" s="4" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C360" s="4" t="s">
         <v>25</v>
@@ -35853,7 +35853,7 @@
         <v>360</v>
       </c>
       <c r="B361" s="4" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C361" s="4" t="s">
         <v>25</v>
@@ -35945,7 +35945,7 @@
         <v>361</v>
       </c>
       <c r="B362" s="4" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C362" s="4" t="s">
         <v>156</v>
@@ -36037,7 +36037,7 @@
         <v>362</v>
       </c>
       <c r="B363" s="4" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C363" s="4" t="s">
         <v>66</v>
@@ -36129,10 +36129,10 @@
         <v>363</v>
       </c>
       <c r="B364" s="4" t="s">
+        <v>464</v>
+      </c>
+      <c r="C364" s="4" t="s">
         <v>465</v>
-      </c>
-      <c r="C364" s="4" t="s">
-        <v>466</v>
       </c>
       <c r="D364" s="4" t="s">
         <v>86</v>
@@ -36221,7 +36221,7 @@
         <v>364</v>
       </c>
       <c r="B365" s="4" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C365" s="4" t="s">
         <v>380</v>
@@ -36313,7 +36313,7 @@
         <v>365</v>
       </c>
       <c r="B366" s="4" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C366" s="4" t="s">
         <v>25</v>
@@ -36405,7 +36405,7 @@
         <v>366</v>
       </c>
       <c r="B367" s="4" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C367" s="4" t="s">
         <v>225</v>
@@ -36497,7 +36497,7 @@
         <v>367</v>
       </c>
       <c r="B368" s="4" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C368" s="4" t="s">
         <v>43</v>
@@ -36589,7 +36589,7 @@
         <v>368</v>
       </c>
       <c r="B369" s="4" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C369" s="4" t="s">
         <v>25</v>
@@ -36681,7 +36681,7 @@
         <v>369</v>
       </c>
       <c r="B370" s="4" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C370" s="4" t="s">
         <v>60</v>
@@ -36773,7 +36773,7 @@
         <v>370</v>
       </c>
       <c r="B371" s="4" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C371" s="4" t="s">
         <v>84</v>
@@ -36865,7 +36865,7 @@
         <v>371</v>
       </c>
       <c r="B372" s="4" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C372" s="4" t="s">
         <v>25</v>
@@ -36957,7 +36957,7 @@
         <v>372</v>
       </c>
       <c r="B373" s="4" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C373" s="4" t="s">
         <v>156</v>
@@ -37049,7 +37049,7 @@
         <v>373</v>
       </c>
       <c r="B374" s="4" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C374" s="4" t="s">
         <v>25</v>
@@ -37141,7 +37141,7 @@
         <v>374</v>
       </c>
       <c r="B375" s="4" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C375" s="4" t="s">
         <v>25</v>
@@ -37233,10 +37233,10 @@
         <v>375</v>
       </c>
       <c r="B376" s="4" t="s">
+        <v>477</v>
+      </c>
+      <c r="C376" s="4" t="s">
         <v>478</v>
-      </c>
-      <c r="C376" s="4" t="s">
-        <v>479</v>
       </c>
       <c r="D376" s="4" t="s">
         <v>81</v>
@@ -37325,7 +37325,7 @@
         <v>376</v>
       </c>
       <c r="B377" s="4" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C377" s="4" t="s">
         <v>25</v>
@@ -37417,10 +37417,10 @@
         <v>377</v>
       </c>
       <c r="B378" s="4" t="s">
+        <v>480</v>
+      </c>
+      <c r="C378" s="4" t="s">
         <v>481</v>
-      </c>
-      <c r="C378" s="4" t="s">
-        <v>482</v>
       </c>
       <c r="D378" s="4" t="s">
         <v>86</v>
@@ -37509,7 +37509,7 @@
         <v>378</v>
       </c>
       <c r="B379" s="4" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C379" s="4" t="s">
         <v>25</v>
@@ -37601,7 +37601,7 @@
         <v>379</v>
       </c>
       <c r="B380" s="4" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C380" s="4" t="s">
         <v>25</v>
@@ -37693,7 +37693,7 @@
         <v>380</v>
       </c>
       <c r="B381" s="4" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C381" s="4" t="s">
         <v>25</v>
@@ -37785,7 +37785,7 @@
         <v>381</v>
       </c>
       <c r="B382" s="4" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C382" s="4" t="s">
         <v>25</v>
@@ -37877,7 +37877,7 @@
         <v>382</v>
       </c>
       <c r="B383" s="4" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C383" s="4" t="s">
         <v>25</v>
@@ -37969,7 +37969,7 @@
         <v>383</v>
       </c>
       <c r="B384" s="4" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C384" s="4" t="s">
         <v>115</v>
@@ -38061,7 +38061,7 @@
         <v>384</v>
       </c>
       <c r="B385" s="4" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C385" s="4" t="s">
         <v>96</v>
@@ -38153,7 +38153,7 @@
         <v>385</v>
       </c>
       <c r="B386" s="4" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C386" s="4" t="s">
         <v>25</v>
@@ -38245,7 +38245,7 @@
         <v>386</v>
       </c>
       <c r="B387" s="4" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C387" s="4" t="s">
         <v>25</v>
@@ -38337,7 +38337,7 @@
         <v>387</v>
       </c>
       <c r="B388" s="4" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C388" s="4" t="s">
         <v>263</v>
@@ -38429,7 +38429,7 @@
         <v>388</v>
       </c>
       <c r="B389" s="4" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C389" s="4" t="s">
         <v>25</v>
@@ -38521,10 +38521,10 @@
         <v>389</v>
       </c>
       <c r="B390" s="4" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C390" s="4" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="D390" s="4" t="s">
         <v>111</v>
@@ -38613,7 +38613,7 @@
         <v>390</v>
       </c>
       <c r="B391" s="4" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C391" s="4" t="s">
         <v>25</v>
@@ -38705,7 +38705,7 @@
         <v>391</v>
       </c>
       <c r="B392" s="4" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C392" s="4" t="s">
         <v>25</v>
@@ -38797,7 +38797,7 @@
         <v>392</v>
       </c>
       <c r="B393" s="4" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C393" s="4" t="s">
         <v>169</v>
@@ -38889,7 +38889,7 @@
         <v>393</v>
       </c>
       <c r="B394" s="4" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C394" s="4" t="s">
         <v>66</v>
@@ -38981,7 +38981,7 @@
         <v>394</v>
       </c>
       <c r="B395" s="4" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C395" s="4" t="s">
         <v>52</v>
@@ -39073,7 +39073,7 @@
         <v>395</v>
       </c>
       <c r="B396" s="4" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C396" s="4" t="s">
         <v>25</v>
@@ -39165,7 +39165,7 @@
         <v>396</v>
       </c>
       <c r="B397" s="4" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C397" s="4" t="s">
         <v>25</v>
@@ -39257,7 +39257,7 @@
         <v>397</v>
       </c>
       <c r="B398" s="4" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C398" s="4" t="s">
         <v>270</v>
@@ -39349,7 +39349,7 @@
         <v>398</v>
       </c>
       <c r="B399" s="4" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C399" s="4" t="s">
         <v>25</v>
@@ -39441,7 +39441,7 @@
         <v>399</v>
       </c>
       <c r="B400" s="4" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C400" s="4" t="s">
         <v>43</v>
@@ -39533,7 +39533,7 @@
         <v>400</v>
       </c>
       <c r="B401" s="4" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C401" s="4" t="s">
         <v>43</v>
@@ -39625,7 +39625,7 @@
         <v>401</v>
       </c>
       <c r="B402" s="4" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C402" s="4" t="s">
         <v>25</v>
@@ -39809,7 +39809,7 @@
         <v>403</v>
       </c>
       <c r="B404" s="4" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C404" s="4" t="s">
         <v>25</v>
@@ -39901,7 +39901,7 @@
         <v>404</v>
       </c>
       <c r="B405" s="4" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="C405" s="4" t="s">
         <v>227</v>
@@ -39993,7 +39993,7 @@
         <v>405</v>
       </c>
       <c r="B406" s="4" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="C406" s="4" t="s">
         <v>25</v>
@@ -40085,10 +40085,10 @@
         <v>406</v>
       </c>
       <c r="B407" s="4" t="s">
+        <v>509</v>
+      </c>
+      <c r="C407" s="4" t="s">
         <v>510</v>
-      </c>
-      <c r="C407" s="4" t="s">
-        <v>511</v>
       </c>
       <c r="D407" s="4" t="s">
         <v>81</v>
@@ -40177,7 +40177,7 @@
         <v>407</v>
       </c>
       <c r="B408" s="4" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C408" s="4" t="s">
         <v>25</v>
@@ -40269,7 +40269,7 @@
         <v>408</v>
       </c>
       <c r="B409" s="4" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C409" s="4" t="s">
         <v>43</v>
@@ -40361,7 +40361,7 @@
         <v>409</v>
       </c>
       <c r="B410" s="4" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="C410" s="4" t="s">
         <v>25</v>
@@ -40453,7 +40453,7 @@
         <v>410</v>
       </c>
       <c r="B411" s="4" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="C411" s="4" t="s">
         <v>25</v>
@@ -40545,7 +40545,7 @@
         <v>411</v>
       </c>
       <c r="B412" s="4" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="C412" s="4" t="s">
         <v>43</v>
@@ -40637,7 +40637,7 @@
         <v>412</v>
       </c>
       <c r="B413" s="4" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="C413" s="4" t="s">
         <v>43</v>
@@ -40729,7 +40729,7 @@
         <v>413</v>
       </c>
       <c r="B414" s="4" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="C414" s="4" t="s">
         <v>25</v>
@@ -40821,7 +40821,7 @@
         <v>414</v>
       </c>
       <c r="B415" s="4" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="C415" s="4" t="s">
         <v>96</v>
@@ -40913,7 +40913,7 @@
         <v>415</v>
       </c>
       <c r="B416" s="4" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="C416" s="4" t="s">
         <v>43</v>
@@ -41005,7 +41005,7 @@
         <v>416</v>
       </c>
       <c r="B417" s="4" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="C417" s="4" t="s">
         <v>25</v>
@@ -41097,7 +41097,7 @@
         <v>417</v>
       </c>
       <c r="B418" s="4" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="C418" s="4" t="s">
         <v>225</v>
@@ -41189,7 +41189,7 @@
         <v>418</v>
       </c>
       <c r="B419" s="4" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="C419" s="4" t="s">
         <v>263</v>
@@ -41281,7 +41281,7 @@
         <v>419</v>
       </c>
       <c r="B420" s="4" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C420" s="4" t="s">
         <v>25</v>
@@ -41373,7 +41373,7 @@
         <v>420</v>
       </c>
       <c r="B421" s="4" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="C421" s="4" t="s">
         <v>25</v>
@@ -41465,7 +41465,7 @@
         <v>421</v>
       </c>
       <c r="B422" s="4" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C422" s="4" t="s">
         <v>390</v>
@@ -41557,10 +41557,10 @@
         <v>422</v>
       </c>
       <c r="B423" s="4" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C423" s="4" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="D423" s="4" t="s">
         <v>28</v>
@@ -41649,7 +41649,7 @@
         <v>423</v>
       </c>
       <c r="B424" s="4" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="C424" s="4" t="s">
         <v>225</v>
@@ -41741,10 +41741,10 @@
         <v>424</v>
       </c>
       <c r="B425" s="4" t="s">
+        <v>527</v>
+      </c>
+      <c r="C425" s="4" t="s">
         <v>528</v>
-      </c>
-      <c r="C425" s="4" t="s">
-        <v>529</v>
       </c>
       <c r="D425" s="4" t="s">
         <v>28</v>
@@ -41925,7 +41925,7 @@
         <v>426</v>
       </c>
       <c r="B427" s="4" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="C427" s="4" t="s">
         <v>66</v>
@@ -42017,7 +42017,7 @@
         <v>427</v>
       </c>
       <c r="B428" s="4" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C428" s="4" t="s">
         <v>25</v>
@@ -42109,7 +42109,7 @@
         <v>428</v>
       </c>
       <c r="B429" s="4" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="C429" s="4" t="s">
         <v>25</v>
@@ -42201,7 +42201,7 @@
         <v>429</v>
       </c>
       <c r="B430" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="C430" s="4" t="s">
         <v>96</v>
@@ -42293,7 +42293,7 @@
         <v>430</v>
       </c>
       <c r="B431" s="4" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C431" s="4" t="s">
         <v>172</v>
@@ -42385,7 +42385,7 @@
         <v>431</v>
       </c>
       <c r="B432" s="4" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="C432" s="4" t="s">
         <v>40</v>
@@ -42477,7 +42477,7 @@
         <v>432</v>
       </c>
       <c r="B433" s="4" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="C433" s="4" t="s">
         <v>80</v>
@@ -42569,7 +42569,7 @@
         <v>433</v>
       </c>
       <c r="B434" s="4" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="C434" s="4" t="s">
         <v>25</v>
@@ -42661,7 +42661,7 @@
         <v>434</v>
       </c>
       <c r="B435" s="4" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C435" s="4" t="s">
         <v>52</v>
@@ -42753,7 +42753,7 @@
         <v>435</v>
       </c>
       <c r="B436" s="4" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="C436" s="4" t="s">
         <v>25</v>
@@ -42845,7 +42845,7 @@
         <v>436</v>
       </c>
       <c r="B437" s="4" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C437" s="4" t="s">
         <v>25</v>
@@ -42937,7 +42937,7 @@
         <v>437</v>
       </c>
       <c r="B438" s="4" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="C438" s="4" t="s">
         <v>25</v>
@@ -43029,7 +43029,7 @@
         <v>438</v>
       </c>
       <c r="B439" s="4" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="C439" s="4" t="s">
         <v>349</v>
@@ -43121,7 +43121,7 @@
         <v>439</v>
       </c>
       <c r="B440" s="4" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="C440" s="4" t="s">
         <v>96</v>
@@ -43213,7 +43213,7 @@
         <v>440</v>
       </c>
       <c r="B441" s="4" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C441" s="4" t="s">
         <v>25</v>
@@ -43305,7 +43305,7 @@
         <v>441</v>
       </c>
       <c r="B442" s="4" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="C442" s="4" t="s">
         <v>25</v>
@@ -43397,7 +43397,7 @@
         <v>442</v>
       </c>
       <c r="B443" s="4" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="C443" s="4" t="s">
         <v>25</v>
@@ -43489,7 +43489,7 @@
         <v>443</v>
       </c>
       <c r="B444" s="4" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="C444" s="4" t="s">
         <v>25</v>
@@ -43581,7 +43581,7 @@
         <v>444</v>
       </c>
       <c r="B445" s="4" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="C445" s="4" t="s">
         <v>25</v>
@@ -43673,7 +43673,7 @@
         <v>445</v>
       </c>
       <c r="B446" s="4" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="C446" s="4" t="s">
         <v>331</v>
@@ -43765,7 +43765,7 @@
         <v>446</v>
       </c>
       <c r="B447" s="4" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C447" s="4" t="s">
         <v>43</v>
@@ -43857,7 +43857,7 @@
         <v>447</v>
       </c>
       <c r="B448" s="4" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="C448" s="4" t="s">
         <v>400</v>
@@ -43949,10 +43949,10 @@
         <v>448</v>
       </c>
       <c r="B449" s="4" t="s">
+        <v>551</v>
+      </c>
+      <c r="C449" s="4" t="s">
         <v>552</v>
-      </c>
-      <c r="C449" s="4" t="s">
-        <v>553</v>
       </c>
       <c r="D449" s="4" t="s">
         <v>81</v>
@@ -44041,7 +44041,7 @@
         <v>449</v>
       </c>
       <c r="B450" s="4" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="C450" s="4" t="s">
         <v>25</v>
@@ -44131,7 +44131,7 @@
         <v>450</v>
       </c>
       <c r="B451" s="4" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="C451" s="4" t="s">
         <v>96</v>
@@ -44223,7 +44223,7 @@
         <v>451</v>
       </c>
       <c r="B452" s="4" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="C452" s="4" t="s">
         <v>227</v>
@@ -44315,7 +44315,7 @@
         <v>452</v>
       </c>
       <c r="B453" s="4" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="C453" s="4" t="s">
         <v>25</v>
@@ -44407,7 +44407,7 @@
         <v>453</v>
       </c>
       <c r="B454" s="4" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="C454" s="4" t="s">
         <v>25</v>
@@ -44499,7 +44499,7 @@
         <v>454</v>
       </c>
       <c r="B455" s="4" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C455" s="4" t="s">
         <v>25</v>
@@ -44591,7 +44591,7 @@
         <v>455</v>
       </c>
       <c r="B456" s="4" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="C456" s="4" t="s">
         <v>84</v>
@@ -44683,7 +44683,7 @@
         <v>456</v>
       </c>
       <c r="B457" s="4" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="C457" s="4" t="s">
         <v>331</v>
@@ -44775,7 +44775,7 @@
         <v>457</v>
       </c>
       <c r="B458" s="4" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="C458" s="4" t="s">
         <v>278</v>
@@ -44867,7 +44867,7 @@
         <v>458</v>
       </c>
       <c r="B459" s="4" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="C459" s="4" t="s">
         <v>56</v>
@@ -44957,7 +44957,7 @@
         <v>459</v>
       </c>
       <c r="B460" s="4" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="C460" s="4" t="s">
         <v>25</v>
@@ -45049,7 +45049,7 @@
         <v>460</v>
       </c>
       <c r="B461" s="4" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="C461" s="4" t="s">
         <v>25</v>
@@ -45141,7 +45141,7 @@
         <v>461</v>
       </c>
       <c r="B462" s="4" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="C462" s="4" t="s">
         <v>25</v>
@@ -45233,7 +45233,7 @@
         <v>462</v>
       </c>
       <c r="B463" s="4" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="C463" s="4" t="s">
         <v>25</v>
@@ -45325,7 +45325,7 @@
         <v>463</v>
       </c>
       <c r="B464" s="4" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="C464" s="4" t="s">
         <v>274</v>
@@ -45417,7 +45417,7 @@
         <v>464</v>
       </c>
       <c r="B465" s="4" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="C465" s="4" t="s">
         <v>25</v>
@@ -45509,7 +45509,7 @@
         <v>465</v>
       </c>
       <c r="B466" s="4" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="C466" s="4" t="s">
         <v>122</v>
@@ -45601,7 +45601,7 @@
         <v>466</v>
       </c>
       <c r="B467" s="4" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C467" s="4" t="s">
         <v>25</v>
@@ -45693,7 +45693,7 @@
         <v>467</v>
       </c>
       <c r="B468" s="4" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C468" s="4" t="s">
         <v>84</v>
@@ -45785,7 +45785,7 @@
         <v>468</v>
       </c>
       <c r="B469" s="4" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C469" s="4" t="s">
         <v>25</v>
@@ -45877,10 +45877,10 @@
         <v>469</v>
       </c>
       <c r="B470" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="C470" s="4" t="s">
         <v>571</v>
-      </c>
-      <c r="C470" s="4" t="s">
-        <v>572</v>
       </c>
       <c r="D470" s="4" t="s">
         <v>22</v>
@@ -45969,7 +45969,7 @@
         <v>470</v>
       </c>
       <c r="B471" s="4" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C471" s="4" t="s">
         <v>56</v>
@@ -46059,7 +46059,7 @@
         <v>471</v>
       </c>
       <c r="B472" s="4" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C472" s="4" t="s">
         <v>25</v>
@@ -46151,7 +46151,7 @@
         <v>472</v>
       </c>
       <c r="B473" s="4" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C473" s="4" t="s">
         <v>25</v>
@@ -46243,7 +46243,7 @@
         <v>473</v>
       </c>
       <c r="B474" s="4" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="C474" s="4" t="s">
         <v>25</v>
@@ -46335,7 +46335,7 @@
         <v>474</v>
       </c>
       <c r="B475" s="4" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C475" s="4" t="s">
         <v>74</v>
@@ -46427,7 +46427,7 @@
         <v>475</v>
       </c>
       <c r="B476" s="4" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="C476" s="4" t="s">
         <v>52</v>
@@ -46519,7 +46519,7 @@
         <v>476</v>
       </c>
       <c r="B477" s="4" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="C477" s="4" t="s">
         <v>156</v>
@@ -46611,7 +46611,7 @@
         <v>477</v>
       </c>
       <c r="B478" s="4" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="C478" s="4" t="s">
         <v>408</v>
@@ -46795,10 +46795,10 @@
         <v>479</v>
       </c>
       <c r="B480" s="4" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="C480" s="4" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="D480" s="4" t="s">
         <v>46</v>
@@ -46887,7 +46887,7 @@
         <v>480</v>
       </c>
       <c r="B481" s="4" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C481" s="4" t="s">
         <v>74</v>
@@ -46979,7 +46979,7 @@
         <v>481</v>
       </c>
       <c r="B482" s="4" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C482" s="4" t="s">
         <v>25</v>
@@ -47071,7 +47071,7 @@
         <v>482</v>
       </c>
       <c r="B483" s="4" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="C483" s="4" t="s">
         <v>25</v>
@@ -47163,7 +47163,7 @@
         <v>483</v>
       </c>
       <c r="B484" s="4" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="C484" s="4" t="s">
         <v>25</v>
@@ -47255,7 +47255,7 @@
         <v>484</v>
       </c>
       <c r="B485" s="4" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="C485" s="4" t="s">
         <v>25</v>
@@ -47347,7 +47347,7 @@
         <v>485</v>
       </c>
       <c r="B486" s="4" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="C486" s="4" t="s">
         <v>177</v>
@@ -47439,7 +47439,7 @@
         <v>486</v>
       </c>
       <c r="B487" s="4" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="C487" s="4" t="s">
         <v>96</v>
@@ -47531,7 +47531,7 @@
         <v>487</v>
       </c>
       <c r="B488" s="4" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="C488" s="4" t="s">
         <v>349</v>
@@ -47621,7 +47621,7 @@
         <v>488</v>
       </c>
       <c r="B489" s="4" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="C489" s="4" t="s">
         <v>25</v>
@@ -47713,7 +47713,7 @@
         <v>489</v>
       </c>
       <c r="B490" s="4" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="C490" s="4" t="s">
         <v>390</v>
@@ -47895,7 +47895,7 @@
         <v>491</v>
       </c>
       <c r="B492" s="4" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="C492" s="4" t="s">
         <v>84</v>
@@ -47987,7 +47987,7 @@
         <v>492</v>
       </c>
       <c r="B493" s="4" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="C493" s="4" t="s">
         <v>70</v>
@@ -48079,7 +48079,7 @@
         <v>493</v>
       </c>
       <c r="B494" s="4" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="C494" s="4" t="s">
         <v>25</v>
@@ -48171,7 +48171,7 @@
         <v>494</v>
       </c>
       <c r="B495" s="4" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="C495" s="4" t="s">
         <v>156</v>
@@ -48221,7 +48221,7 @@
         <v>495</v>
       </c>
       <c r="B496" s="4" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="C496" s="4" t="s">
         <v>25</v>
@@ -48313,7 +48313,7 @@
         <v>496</v>
       </c>
       <c r="B497" s="4" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C497" s="4" t="s">
         <v>25</v>
@@ -48405,7 +48405,7 @@
         <v>497</v>
       </c>
       <c r="B498" s="4" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="C498" s="4" t="s">
         <v>25</v>
@@ -48497,7 +48497,7 @@
         <v>498</v>
       </c>
       <c r="B499" s="4" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="C499" s="4" t="s">
         <v>25</v>
@@ -48589,7 +48589,7 @@
         <v>499</v>
       </c>
       <c r="B500" s="4" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="C500" s="4" t="s">
         <v>218</v>
